--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="245">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>alarm_first</t>
+  </si>
+  <si>
+    <t>touch_ray</t>
+  </si>
+  <si>
+    <t>Задеть луч</t>
   </si>
   <si>
     <t>Дверь  в комнату 
@@ -1183,7 +1189,7 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1453,9 +1459,15 @@
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="O6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="R6" s="12"/>
       <c r="S6" s="13" t="n">
         <v>0</v>
@@ -1505,10 +1517,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>28</v>
@@ -1533,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1545,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1578,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1589,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>28</v>
@@ -1673,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>28</v>
@@ -1716,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>28</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -1830,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>28</v>
@@ -1906,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1929,10 +1941,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>28</v>
@@ -1959,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1967,20 +1979,20 @@
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2017,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>28</v>
@@ -2045,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -2057,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -2090,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>28</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -2141,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2181,10 +2193,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>28</v>
@@ -2242,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -2254,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2287,10 +2299,10 @@
         <v>2</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,10 +2310,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>28</v>
@@ -2326,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2338,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -2371,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,10 +2394,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>28</v>
@@ -2410,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -2422,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -2455,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2466,10 +2478,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>28</v>
@@ -2550,10 +2562,10 @@
         <v>15</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>28</v>
@@ -2593,7 +2605,7 @@
         <v>29</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,10 +2646,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>28</v>
@@ -2662,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -2670,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -2678,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2730,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>28</v>
@@ -2750,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
@@ -2758,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -2791,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2802,10 +2814,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>28</v>
@@ -2886,10 +2898,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>28</v>
@@ -2918,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
@@ -2926,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
@@ -2959,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2970,10 +2982,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>28</v>
@@ -3013,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3054,10 +3066,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>28</v>
@@ -3097,7 +3109,7 @@
         <v>29</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3130,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3138,10 +3150,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>28</v>
@@ -3181,7 +3193,7 @@
         <v>29</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3214,7 +3226,7 @@
         <v>32</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3222,10 +3234,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>28</v>
@@ -3306,10 +3318,10 @@
         <v>24</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>28</v>
@@ -3334,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
@@ -3342,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
@@ -3350,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,10 +3402,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>28</v>
@@ -3418,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
@@ -3426,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
@@ -3434,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,10 +3486,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>28</v>
@@ -3502,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -3510,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
@@ -3518,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3558,10 +3570,10 @@
         <v>27</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>28</v>
@@ -3586,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -3598,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -3631,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3642,10 +3654,10 @@
         <v>28</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>28</v>
@@ -3685,7 +3697,7 @@
         <v>29</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,7 +3730,7 @@
         <v>32</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3726,10 +3738,10 @@
         <v>29</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>28</v>
@@ -3810,10 +3822,10 @@
         <v>30</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>28</v>
@@ -3838,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -3850,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -3883,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3894,10 +3906,10 @@
         <v>31</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>28</v>
@@ -3955,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -3967,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
@@ -4000,10 +4012,10 @@
         <v>2</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,10 +4023,10 @@
         <v>32</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>28</v>
@@ -4039,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
@@ -4051,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -4084,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,10 +4107,10 @@
         <v>33</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>28</v>
@@ -4127,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
@@ -4135,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
@@ -4168,10 +4180,10 @@
         <v>1</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4179,10 +4191,10 @@
         <v>34</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>28</v>
@@ -4207,17 +4219,17 @@
         <v>1</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O72" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
@@ -4225,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4246,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4258,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4269,10 +4281,10 @@
         <v>35</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>28</v>
@@ -4297,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
@@ -4313,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,11 +4346,11 @@
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
@@ -4348,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -4377,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
@@ -4385,10 +4397,10 @@
         <v>2</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,11 +4418,11 @@
         <v>2</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
@@ -4420,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4431,10 +4443,10 @@
         <v>36</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>28</v>
@@ -4459,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
@@ -4467,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
@@ -4475,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U78" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,11 +4508,11 @@
         <v>1</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M79" s="12"/>
       <c r="N79" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
@@ -4510,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="T79" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U79" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
@@ -4539,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
@@ -4547,10 +4559,10 @@
         <v>2</v>
       </c>
       <c r="T80" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,11 +4580,11 @@
         <v>2</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M81" s="12"/>
       <c r="N81" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
@@ -4582,10 +4594,10 @@
         <v>3</v>
       </c>
       <c r="T81" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4593,10 +4605,10 @@
         <v>37</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>28</v>
@@ -4621,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
@@ -4629,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
@@ -4637,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="T82" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U82" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,11 +4670,11 @@
         <v>1</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M83" s="12"/>
       <c r="N83" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
@@ -4672,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U83" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
@@ -4701,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
@@ -4709,10 +4721,10 @@
         <v>2</v>
       </c>
       <c r="T84" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,11 +4742,11 @@
         <v>2</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
@@ -4744,10 +4756,10 @@
         <v>3</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,10 +4767,10 @@
         <v>38</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>28</v>
@@ -4783,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
@@ -4791,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
@@ -4799,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,11 +4832,11 @@
         <v>1</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
@@ -4834,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U87" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -4863,7 +4875,7 @@
         <v>3</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
@@ -4871,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,11 +4904,11 @@
         <v>2</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
@@ -4906,10 +4918,10 @@
         <v>3</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U89" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5514,13 +5526,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -5535,7 +5547,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -5550,7 +5562,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -5574,13 +5586,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -5595,7 +5607,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -5610,7 +5622,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -5620,13 +5632,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5706,12 +5718,12 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +5731,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5739,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,7 +5747,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,7 +5755,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +5763,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,7 +5771,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +5779,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,7 +5787,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5807,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +5818,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5826,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5834,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +5842,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5850,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5858,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5866,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5874,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +5882,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,7 +5890,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5898,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +5906,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,10 +5914,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +5925,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,7 +5933,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,21 +5941,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +5963,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +5971,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5979,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,7 +5993,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +6007,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6021,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,7 +6035,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,7 +6043,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="283">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -175,6 +175,9 @@
     <t>switch1</t>
   </si>
   <si>
+    <t>Опустить</t>
+  </si>
+  <si>
     <t>Поднят</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Ввести верный код</t>
+  </si>
+  <si>
     <t>Not_passed</t>
   </si>
   <si>
@@ -288,6 +294,9 @@
     <t>Done</t>
   </si>
   <si>
+    <t>Завершить</t>
+  </si>
+  <si>
     <t>Idle</t>
   </si>
   <si>
@@ -359,6 +368,9 @@
     <t>fingers_scanner</t>
   </si>
   <si>
+    <t>Завершить успешно</t>
+  </si>
+  <si>
     <t>Пройдено</t>
   </si>
   <si>
@@ -380,6 +392,9 @@
     <t>Covered</t>
   </si>
   <si>
+    <t>Покрыть</t>
+  </si>
+  <si>
     <t>Not_covered</t>
   </si>
   <si>
@@ -404,6 +419,9 @@
     <t>Installed</t>
   </si>
   <si>
+    <t>Вставить</t>
+  </si>
+  <si>
     <t>Removed</t>
   </si>
   <si>
@@ -437,6 +455,9 @@
     <t>sos_locker_7SEG</t>
   </si>
   <si>
+    <t>Пройти</t>
+  </si>
+  <si>
     <t>Стробоскопы в офисе</t>
   </si>
   <si>
@@ -473,6 +494,9 @@
     <t>office_fuses</t>
   </si>
   <si>
+    <t>Удалить</t>
+  </si>
+  <si>
     <t>Комп в офисе</t>
   </si>
   <si>
@@ -482,6 +506,9 @@
     <t>Power_connected</t>
   </si>
   <si>
+    <t>Включить питание</t>
+  </si>
+  <si>
     <t>Power_disconnected</t>
   </si>
   <si>
@@ -498,6 +525,9 @@
   </si>
   <si>
     <t>Deactivate</t>
+  </si>
+  <si>
+    <t>Уничтожить</t>
   </si>
   <si>
     <t>Not_destroyed</t>
@@ -612,6 +642,9 @@
     <t>CH1_playback_finished</t>
   </si>
   <si>
+    <t>завершить канал 1</t>
+  </si>
+  <si>
     <t>Ch1_stop_ch2_stop</t>
   </si>
   <si>
@@ -634,6 +667,9 @@
   </si>
   <si>
     <t>CH2_playback_finished</t>
+  </si>
+  <si>
+    <t>завершить канал 2</t>
   </si>
   <si>
     <t>Ch1_stop_ch2_play</t>
@@ -676,6 +712,9 @@
   </si>
   <si>
     <t>timemachine</t>
+  </si>
+  <si>
+    <t>пройти</t>
   </si>
   <si>
     <t>Планшет в коридоре №1</t>
@@ -1250,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1771,7 +1810,9 @@
       <c r="P12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="R12" s="12"/>
       <c r="S12" s="13" t="n">
         <v>0</v>
@@ -1780,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>28</v>
@@ -1853,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="13" t="n">
@@ -1892,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1936,10 +1977,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>28</v>
@@ -1970,22 +2011,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,10 +2034,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>28</v>
@@ -2036,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,7 +2110,7 @@
         <v>31</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2077,10 +2118,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>28</v>
@@ -2105,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -2113,18 +2154,20 @@
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="R20" s="14"/>
       <c r="S20" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2161,10 +2204,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>28</v>
@@ -2204,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2237,7 +2280,7 @@
         <v>41</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2245,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>28</v>
@@ -2273,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2281,18 +2324,20 @@
         <v>0</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="R24" s="12"/>
       <c r="S24" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2329,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>28</v>
@@ -2413,10 +2458,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>28</v>
@@ -2497,10 +2542,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>28</v>
@@ -2558,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -2570,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2591,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -2603,10 +2648,10 @@
         <v>2</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2659,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>28</v>
@@ -2657,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2735,7 @@
         <v>41</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>28</v>
@@ -2782,10 +2827,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>28</v>
@@ -2866,10 +2911,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>28</v>
@@ -2909,7 +2954,7 @@
         <v>29</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,7 +2987,7 @@
         <v>31</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,10 +2995,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>28</v>
@@ -2978,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -2986,18 +3031,20 @@
         <v>0</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q41" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="R41" s="12"/>
       <c r="S41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3023,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3034,10 +3081,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>28</v>
@@ -3095,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3107,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3128,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3140,10 +3187,10 @@
         <v>2</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3151,10 +3198,10 @@
         <v>20</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>28</v>
@@ -3183,18 +3230,20 @@
         <v>0</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q46" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="R46" s="12"/>
       <c r="S46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3220,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3231,10 +3280,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>28</v>
@@ -3315,10 +3364,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>28</v>
@@ -3347,18 +3396,20 @@
         <v>0</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q50" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="R50" s="12"/>
       <c r="S50" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3395,10 +3446,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>28</v>
@@ -3429,7 +3480,9 @@
       <c r="P52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" s="12"/>
+      <c r="Q52" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="R52" s="12"/>
       <c r="S52" s="13" t="n">
         <v>0</v>
@@ -3438,7 +3491,7 @@
         <v>29</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3520,7 @@
         <v>31</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3475,10 +3528,10 @@
         <v>23</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>28</v>
@@ -3518,7 +3571,7 @@
         <v>38</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3604,7 @@
         <v>41</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3559,10 +3612,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>28</v>
@@ -3602,7 +3655,7 @@
         <v>38</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3688,7 @@
         <v>41</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3643,10 +3696,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>28</v>
@@ -3671,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -3679,18 +3732,20 @@
         <v>0</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q58" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="Q58" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="R58" s="12"/>
       <c r="S58" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,10 +3771,10 @@
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3727,10 +3782,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>28</v>
@@ -3770,7 +3825,7 @@
         <v>29</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3858,7 @@
         <v>31</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3811,10 +3866,10 @@
         <v>25</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>28</v>
@@ -3854,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,7 +3942,7 @@
         <v>31</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3895,10 +3950,10 @@
         <v>26</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>28</v>
@@ -3979,10 +4034,10 @@
         <v>27</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>28</v>
@@ -4022,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +4118,10 @@
         <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>28</v>
@@ -4095,18 +4150,20 @@
         <v>0</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q68" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="R68" s="12"/>
       <c r="S68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,10 +4200,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>28</v>
@@ -4175,18 +4232,20 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q70" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="Q70" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="R70" s="12"/>
       <c r="S70" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4212,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4223,10 +4282,10 @@
         <v>30</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>28</v>
@@ -4251,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4259,18 +4318,20 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q72" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="Q72" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="R72" s="12"/>
       <c r="S72" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4288,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4300,10 +4361,10 @@
         <v>1</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,10 +4372,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>28</v>
@@ -4339,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -4347,18 +4408,20 @@
         <v>0</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q74" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="R74" s="12"/>
       <c r="S74" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
@@ -4388,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,10 +4462,10 @@
         <v>32</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>28</v>
@@ -4427,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -4435,18 +4498,20 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q76" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="R76" s="12"/>
       <c r="S76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4464,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -4476,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4487,10 +4552,10 @@
         <v>33</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>28</v>
@@ -4571,10 +4636,10 @@
         <v>34</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>28</v>
@@ -4614,7 +4679,7 @@
         <v>29</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4647,7 +4712,7 @@
         <v>31</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4655,10 +4720,10 @@
         <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>28</v>
@@ -4739,10 +4804,10 @@
         <v>36</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>28</v>
@@ -4767,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
@@ -4775,18 +4840,20 @@
         <v>0</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q84" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="Q84" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="R84" s="12"/>
       <c r="S84" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T84" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4804,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
@@ -4816,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4827,10 +4894,10 @@
         <v>37</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>28</v>
@@ -4855,28 +4922,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q86" s="12"/>
+        <v>192</v>
+      </c>
+      <c r="Q86" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="R86" s="12"/>
       <c r="S86" s="13" t="n">
         <v>1</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -4906,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="U87" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4917,10 +4986,10 @@
         <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>28</v>
@@ -4945,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -4953,18 +5022,20 @@
         <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q88" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="Q88" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="R88" s="12"/>
       <c r="S88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,11 +5053,11 @@
         <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
@@ -4996,10 +5067,10 @@
         <v>1</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="U89" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -5025,18 +5096,20 @@
         <v>3</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q90" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="Q90" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="R90" s="12"/>
       <c r="S90" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T90" s="13" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,11 +5127,11 @@
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
@@ -5068,10 +5141,10 @@
         <v>3</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="U91" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5079,10 +5152,10 @@
         <v>39</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>28</v>
@@ -5107,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -5115,18 +5188,20 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q92" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="Q92" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="R92" s="12"/>
       <c r="S92" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="U92" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,11 +5219,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -5158,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="U93" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5254,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
@@ -5187,18 +5262,20 @@
         <v>3</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q94" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="Q94" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="R94" s="12"/>
       <c r="S94" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="U94" s="13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,11 +5293,11 @@
         <v>2</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -5230,10 +5307,10 @@
         <v>3</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="U95" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5241,10 +5318,10 @@
         <v>40</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>28</v>
@@ -5269,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -5277,18 +5354,20 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q96" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="Q96" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="R96" s="12"/>
       <c r="S96" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="U96" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,11 +5385,11 @@
         <v>1</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M97" s="12"/>
       <c r="N97" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -5320,10 +5399,10 @@
         <v>1</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="U97" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -5349,18 +5428,20 @@
         <v>3</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q98" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="Q98" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="R98" s="12"/>
       <c r="S98" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="U98" s="13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,11 +5459,11 @@
         <v>2</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -5392,10 +5473,10 @@
         <v>3</v>
       </c>
       <c r="T99" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="U99" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5403,10 +5484,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>28</v>
@@ -5431,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -5439,18 +5520,20 @@
         <v>0</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q100" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="Q100" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="R100" s="12"/>
       <c r="S100" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T100" s="13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="U100" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,11 +5551,11 @@
         <v>1</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M101" s="12"/>
       <c r="N101" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -5482,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="U101" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -5511,18 +5594,20 @@
         <v>3</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q102" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="Q102" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="R102" s="12"/>
       <c r="S102" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T102" s="13" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="U102" s="13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,11 +5625,11 @@
         <v>2</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M103" s="12"/>
       <c r="N103" s="12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -5554,10 +5639,10 @@
         <v>3</v>
       </c>
       <c r="T103" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="U103" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5565,10 +5650,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>28</v>
@@ -5593,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
@@ -5601,18 +5686,20 @@
         <v>0</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q104" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="Q104" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="R104" s="12"/>
       <c r="S104" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T104" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U104" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -5642,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="T105" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U105" s="13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5653,10 +5740,10 @@
         <v>43</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>28</v>
@@ -5681,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -5695,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U106" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,11 +5803,11 @@
         <v>1</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -5730,10 +5817,10 @@
         <v>1</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U107" s="13" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5741,10 +5828,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>28</v>
@@ -5769,11 +5856,11 @@
         <v>0</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -5783,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="T108" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U108" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,11 +5891,11 @@
         <v>1</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M109" s="12"/>
       <c r="N109" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -5818,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="T109" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U109" s="13" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5829,10 +5916,10 @@
         <v>45</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>28</v>
@@ -5857,11 +5944,11 @@
         <v>0</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M110" s="12"/>
       <c r="N110" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
@@ -5871,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="T110" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U110" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,11 +5979,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M111" s="12"/>
       <c r="N111" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
@@ -5906,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5917,10 +6004,10 @@
         <v>46</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>28</v>
@@ -5945,11 +6032,11 @@
         <v>0</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -5959,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,11 +6067,11 @@
         <v>1</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
@@ -5994,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6787,13 +6874,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="18" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6808,7 +6895,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6823,7 +6910,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -6847,13 +6934,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -6868,7 +6955,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -6883,7 +6970,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -6893,13 +6980,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6984,7 +7071,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +7079,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7000,7 +7087,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,7 +7095,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7016,7 +7103,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,7 +7111,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,7 +7119,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,7 +7127,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,7 +7135,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,7 +7155,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,7 +7166,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,7 +7174,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7182,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +7190,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7198,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +7206,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,7 +7214,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,7 +7222,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,7 +7230,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,7 +7238,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7246,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7254,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,10 +7262,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,7 +7273,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7194,7 +7281,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,21 +7289,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,7 +7311,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,7 +7319,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,7 +7327,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,7 +7341,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,7 +7355,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +7369,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,7 +7383,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,7 +7391,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="284">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>range_door_light</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>Крыса</t>
@@ -1289,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>31</v>
@@ -3142,10 +3145,12 @@
         <v>1</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="N44" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -3171,12 +3176,8 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
@@ -3198,10 +3199,10 @@
         <v>20</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>28</v>
@@ -3230,20 +3231,20 @@
         <v>0</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3269,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3280,10 +3281,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>28</v>
@@ -3364,10 +3365,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>28</v>
@@ -3396,20 +3397,20 @@
         <v>0</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +3436,10 @@
         <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3446,10 +3447,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>28</v>
@@ -3528,10 +3529,10 @@
         <v>23</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>28</v>
@@ -3612,10 +3613,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>28</v>
@@ -3696,10 +3697,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>28</v>
@@ -3735,7 +3736,7 @@
         <v>72</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="13" t="n">
@@ -3782,10 +3783,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>28</v>
@@ -3825,7 +3826,7 @@
         <v>29</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,7 +3859,7 @@
         <v>31</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3866,10 +3867,10 @@
         <v>25</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>28</v>
@@ -3950,10 +3951,10 @@
         <v>26</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>28</v>
@@ -4034,10 +4035,10 @@
         <v>27</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>28</v>
@@ -4118,10 +4119,10 @@
         <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>28</v>
@@ -4150,20 +4151,20 @@
         <v>0</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R68" s="12"/>
       <c r="S68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,10 +4190,10 @@
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,10 +4201,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>28</v>
@@ -4232,20 +4233,20 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4271,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4282,10 +4283,10 @@
         <v>30</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>28</v>
@@ -4310,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4321,17 +4322,17 @@
         <v>72</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4349,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4361,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,10 +4373,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>28</v>
@@ -4400,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -4411,17 +4412,17 @@
         <v>72</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R74" s="12"/>
       <c r="S74" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
@@ -4451,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,10 +4463,10 @@
         <v>32</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>28</v>
@@ -4490,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -4501,17 +4502,17 @@
         <v>72</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R76" s="12"/>
       <c r="S76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4529,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -4541,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4552,10 +4553,10 @@
         <v>33</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>28</v>
@@ -4636,10 +4637,10 @@
         <v>34</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>28</v>
@@ -4679,7 +4680,7 @@
         <v>29</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4712,7 +4713,7 @@
         <v>31</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4720,10 +4721,10 @@
         <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>28</v>
@@ -4804,10 +4805,10 @@
         <v>36</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>28</v>
@@ -4832,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
@@ -4840,20 +4841,20 @@
         <v>0</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R84" s="12"/>
       <c r="S84" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T84" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4871,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
@@ -4883,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,10 +4895,10 @@
         <v>37</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>28</v>
@@ -4922,17 +4923,17 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q86" s="12" t="s">
         <v>86</v>
@@ -4942,10 +4943,10 @@
         <v>1</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -4975,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U87" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4986,10 +4987,10 @@
         <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>28</v>
@@ -5014,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -5022,20 +5023,20 @@
         <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,11 +5054,11 @@
         <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
@@ -5067,10 +5068,10 @@
         <v>1</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U89" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -5096,20 +5097,20 @@
         <v>3</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R90" s="12"/>
       <c r="S90" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T90" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,11 +5128,11 @@
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
@@ -5141,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U91" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5152,10 +5153,10 @@
         <v>39</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>28</v>
@@ -5180,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -5188,20 +5189,20 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R92" s="12"/>
       <c r="S92" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U92" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,11 +5220,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -5233,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U93" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
@@ -5262,20 +5263,20 @@
         <v>3</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R94" s="12"/>
       <c r="S94" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U94" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,11 +5294,11 @@
         <v>2</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -5307,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U95" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5318,10 +5319,10 @@
         <v>40</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>28</v>
@@ -5346,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -5354,20 +5355,20 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R96" s="12"/>
       <c r="S96" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U96" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,11 +5386,11 @@
         <v>1</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M97" s="12"/>
       <c r="N97" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -5399,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U97" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -5428,20 +5429,20 @@
         <v>3</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R98" s="12"/>
       <c r="S98" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U98" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,11 +5460,11 @@
         <v>2</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -5473,10 +5474,10 @@
         <v>3</v>
       </c>
       <c r="T99" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U99" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5484,10 +5485,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>28</v>
@@ -5512,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -5520,20 +5521,20 @@
         <v>0</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R100" s="12"/>
       <c r="S100" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T100" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U100" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,11 +5552,11 @@
         <v>1</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M101" s="12"/>
       <c r="N101" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -5565,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U101" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -5594,20 +5595,20 @@
         <v>3</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R102" s="12"/>
       <c r="S102" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T102" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U102" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,11 +5626,11 @@
         <v>2</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M103" s="12"/>
       <c r="N103" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -5639,10 +5640,10 @@
         <v>3</v>
       </c>
       <c r="T103" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U103" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5650,10 +5651,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>28</v>
@@ -5678,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
@@ -5686,20 +5687,20 @@
         <v>0</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R104" s="12"/>
       <c r="S104" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T104" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U104" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -5729,10 +5730,10 @@
         <v>1</v>
       </c>
       <c r="T105" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U105" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5740,10 +5741,10 @@
         <v>43</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>28</v>
@@ -5768,11 +5769,11 @@
         <v>0</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -5782,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U106" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,11 +5804,11 @@
         <v>1</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -5817,10 +5818,10 @@
         <v>1</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U107" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5828,10 +5829,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>28</v>
@@ -5856,11 +5857,11 @@
         <v>0</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -5870,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="T108" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U108" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5891,11 +5892,11 @@
         <v>1</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M109" s="12"/>
       <c r="N109" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -5905,10 +5906,10 @@
         <v>1</v>
       </c>
       <c r="T109" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U109" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5916,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>28</v>
@@ -5944,11 +5945,11 @@
         <v>0</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M110" s="12"/>
       <c r="N110" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
@@ -5958,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="T110" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U110" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,11 +5980,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M111" s="12"/>
       <c r="N111" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
@@ -5993,10 +5994,10 @@
         <v>1</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6004,10 +6005,10 @@
         <v>46</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>28</v>
@@ -6032,11 +6033,11 @@
         <v>0</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -6046,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,11 +6068,11 @@
         <v>1</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
@@ -6081,10 +6082,10 @@
         <v>1</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6860,7 +6861,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6874,13 +6875,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6895,7 +6896,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6910,7 +6911,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -6934,13 +6935,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -6955,7 +6956,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -6970,7 +6971,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -6980,13 +6981,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -7023,7 +7024,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -7071,7 +7072,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,7 +7080,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,7 +7088,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7096,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +7104,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7112,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +7120,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,7 +7128,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,7 +7136,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,7 +7156,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,7 +7167,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7175,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,7 +7183,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,7 +7191,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,7 +7199,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,7 +7207,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,7 +7215,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,7 +7223,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7231,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,7 +7239,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,7 +7247,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,7 +7255,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,10 +7263,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,7 +7274,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,7 +7282,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,21 +7290,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,7 +7312,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,7 +7320,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,7 +7328,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +7342,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7356,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,7 +7370,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,7 +7384,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,7 +7392,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="285">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>video_player1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>Play</t>
@@ -1292,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E88" activeCellId="0" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4901,10 +4904,10 @@
         <v>190</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="E86" s="12" t="n">
-        <v>80</v>
+        <v>9615</v>
       </c>
       <c r="F86" s="12" t="n">
         <v>7</v>
@@ -4923,17 +4926,17 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q86" s="12" t="s">
         <v>86</v>
@@ -4943,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -4976,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U87" s="13" t="s">
         <v>186</v>
@@ -4987,10 +4990,10 @@
         <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>28</v>
@@ -5015,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -5023,20 +5026,20 @@
         <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,11 +5057,11 @@
         <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
@@ -5068,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U89" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -5097,20 +5100,20 @@
         <v>3</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R90" s="12"/>
       <c r="S90" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T90" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,11 +5131,11 @@
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
@@ -5142,10 +5145,10 @@
         <v>3</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U91" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5153,10 +5156,10 @@
         <v>39</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>28</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -5189,20 +5192,20 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R92" s="12"/>
       <c r="S92" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U92" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,11 +5223,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -5234,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U93" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
@@ -5263,20 +5266,20 @@
         <v>3</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R94" s="12"/>
       <c r="S94" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U94" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,11 +5297,11 @@
         <v>2</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -5308,10 +5311,10 @@
         <v>3</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U95" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5319,10 +5322,10 @@
         <v>40</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>28</v>
@@ -5347,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -5355,20 +5358,20 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R96" s="12"/>
       <c r="S96" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U96" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,11 +5389,11 @@
         <v>1</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M97" s="12"/>
       <c r="N97" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -5400,10 +5403,10 @@
         <v>1</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U97" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -5429,20 +5432,20 @@
         <v>3</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R98" s="12"/>
       <c r="S98" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U98" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,11 +5463,11 @@
         <v>2</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -5474,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="T99" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U99" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5485,10 +5488,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>28</v>
@@ -5513,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -5521,20 +5524,20 @@
         <v>0</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R100" s="12"/>
       <c r="S100" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T100" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U100" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,11 +5555,11 @@
         <v>1</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M101" s="12"/>
       <c r="N101" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -5566,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U101" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -5595,20 +5598,20 @@
         <v>3</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R102" s="12"/>
       <c r="S102" s="13" t="n">
         <v>2</v>
       </c>
       <c r="T102" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U102" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,11 +5629,11 @@
         <v>2</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M103" s="12"/>
       <c r="N103" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -5640,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="T103" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U103" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5651,10 +5654,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>28</v>
@@ -5690,7 +5693,7 @@
         <v>184</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R104" s="12"/>
       <c r="S104" s="13" t="n">
@@ -5741,10 +5744,10 @@
         <v>43</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>28</v>
@@ -5773,7 +5776,7 @@
       </c>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -5804,11 +5807,11 @@
         <v>1</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -5821,7 +5824,7 @@
         <v>187</v>
       </c>
       <c r="U107" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5829,10 +5832,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>28</v>
@@ -5861,7 +5864,7 @@
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -5892,11 +5895,11 @@
         <v>1</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M109" s="12"/>
       <c r="N109" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -5909,7 +5912,7 @@
         <v>187</v>
       </c>
       <c r="U109" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5917,10 +5920,10 @@
         <v>45</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>28</v>
@@ -5949,7 +5952,7 @@
       </c>
       <c r="M110" s="12"/>
       <c r="N110" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
@@ -5980,11 +5983,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M111" s="12"/>
       <c r="N111" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
@@ -5997,7 +6000,7 @@
         <v>187</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6005,10 +6008,10 @@
         <v>46</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>28</v>
@@ -6037,7 +6040,7 @@
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -6068,11 +6071,11 @@
         <v>1</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
@@ -6085,7 +6088,7 @@
         <v>187</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6875,13 +6878,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6896,7 +6899,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6911,7 +6914,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -6935,13 +6938,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -6956,7 +6959,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -6971,7 +6974,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -6981,13 +6984,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,7 +7083,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,7 +7091,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,7 +7099,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7107,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,7 +7115,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,7 +7123,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,7 +7131,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,7 +7139,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7159,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7170,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7178,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,7 +7186,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,7 +7194,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,7 +7202,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,7 +7210,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7218,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,7 +7226,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,7 +7234,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +7242,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,7 +7250,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +7258,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,10 +7266,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,7 +7277,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +7285,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,21 +7293,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,7 +7315,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,7 +7323,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7331,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,7 +7345,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,7 +7359,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,7 +7373,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7387,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,7 +7395,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1295,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E88" activeCellId="0" sqref="E88"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I86" activeCellId="0" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4910,13 +4910,13 @@
         <v>9615</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H86" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="12" t="n">
         <v>4</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="303">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -98,6 +98,12 @@
  рапорта</t>
   </si>
   <si>
+    <t>Исходное состояние</t>
+  </si>
+  <si>
+    <t>Конечное состояние</t>
+  </si>
+  <si>
     <t>ID
 состояния</t>
   </si>
@@ -178,6 +184,12 @@
     <t>Опустить</t>
   </si>
   <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>Поднят</t>
   </si>
   <si>
@@ -196,6 +208,12 @@
     <t>Задеть</t>
   </si>
   <si>
+    <t>off, on_ok</t>
+  </si>
+  <si>
+    <t>on_failed</t>
+  </si>
+  <si>
     <t>On_ok</t>
   </si>
   <si>
@@ -221,6 +239,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>touched</t>
   </si>
   <si>
     <t>Touched :N</t>
@@ -257,6 +278,12 @@
     <t>Ввести верный код</t>
   </si>
   <si>
+    <t>not_passed</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
     <t>Not_passed</t>
   </si>
   <si>
@@ -297,6 +324,12 @@
     <t>Завершить</t>
   </si>
   <si>
+    <t>scanning</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
     <t>Idle</t>
   </si>
   <si>
@@ -398,6 +431,12 @@
     <t>Покрыть</t>
   </si>
   <si>
+    <t>not_covered</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
     <t>Not_covered</t>
   </si>
   <si>
@@ -425,6 +464,12 @@
     <t>Вставить</t>
   </si>
   <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>installed</t>
+  </si>
+  <si>
     <t>Removed</t>
   </si>
   <si>
@@ -512,6 +557,12 @@
     <t>Включить питание</t>
   </si>
   <si>
+    <t>power_disconnected</t>
+  </si>
+  <si>
+    <t>power_connected</t>
+  </si>
+  <si>
     <t>Power_disconnected</t>
   </si>
   <si>
@@ -533,6 +584,12 @@
     <t>Уничтожить</t>
   </si>
   <si>
+    <t>not_destroyed</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
     <t>Not_destroyed</t>
   </si>
   <si>
@@ -588,9 +645,6 @@
   </si>
   <si>
     <t>facebook</t>
-  </si>
-  <si>
-    <t>passed</t>
   </si>
   <si>
     <t>Sleep</t>
@@ -1293,13 +1347,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I86" activeCellId="0" sqref="I86"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S114" activeCellId="0" sqref="S114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.13775510204082"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.1377551020408"/>
@@ -1311,13 +1365,12 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.5714285714286"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="21.2908163265306"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="17.4234693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.6173469387755"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="31.280612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="27.4234693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="27.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1022" min="22" style="2" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="2" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="12.8622448979592"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="27.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="2" width="9.14285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,6 +1397,8 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
@@ -1370,11 +1425,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
@@ -1431,28 +1488,34 @@
       <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="V3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>80</v>
@@ -1474,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1482,14 +1545,16 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>30</v>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1515,14 +1580,16 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>32</v>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,13 +1597,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>80</v>
@@ -1558,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1566,14 +1633,16 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>30</v>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1591,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1599,14 +1668,16 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>32</v>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1614,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>80</v>
@@ -1642,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1650,14 +1721,16 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>39</v>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1675,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1683,14 +1756,16 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>42</v>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1698,13 +1773,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>80</v>
@@ -1726,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1734,14 +1809,16 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>30</v>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1759,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -1767,14 +1844,16 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>32</v>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1782,13 +1861,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>80</v>
@@ -1814,20 +1893,26 @@
         <v>0</v>
       </c>
       <c r="P12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>48</v>
+      <c r="W12" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,14 +1934,16 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>49</v>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,13 +1951,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>80</v>
@@ -1892,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -1900,20 +1987,26 @@
         <v>0</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R14" s="12"/>
-      <c r="S14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>30</v>
+      <c r="S14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,14 +2028,16 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>55</v>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -1968,14 +2063,16 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>57</v>
+      <c r="V16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1983,13 +2080,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>80</v>
@@ -2017,22 +2114,28 @@
         <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,13 +2143,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>80</v>
@@ -2068,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -2076,14 +2179,16 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>67</v>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2101,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -2109,14 +2214,16 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>68</v>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2124,13 +2231,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="14" t="n">
         <v>80</v>
@@ -2152,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -2160,20 +2267,26 @@
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R20" s="14"/>
-      <c r="S20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>75</v>
+      <c r="S20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,14 +2308,16 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>77</v>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2210,13 +2325,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>80</v>
@@ -2238,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -2246,14 +2361,16 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>80</v>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2271,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -2279,14 +2396,16 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>81</v>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2294,13 +2413,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>80</v>
@@ -2322,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2330,20 +2449,26 @@
         <v>0</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="R24" s="12"/>
-      <c r="S24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>67</v>
+      <c r="S24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,14 +2490,16 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>89</v>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2380,13 +2507,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="12" t="n">
         <v>80</v>
@@ -2408,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2416,14 +2543,16 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>30</v>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2449,14 +2578,16 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>32</v>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2464,13 +2595,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>80</v>
@@ -2492,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -2500,14 +2631,16 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U28" s="13" t="s">
-        <v>39</v>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -2533,14 +2666,16 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>42</v>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2548,13 +2683,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>80</v>
@@ -2576,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -2584,14 +2719,16 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>32</v>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2609,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -2617,14 +2754,16 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>97</v>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2642,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -2650,14 +2789,16 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="13" t="n">
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>99</v>
+      <c r="V32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,13 +2806,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>80</v>
@@ -2693,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -2701,14 +2842,16 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>80</v>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -2734,14 +2877,16 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>81</v>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,13 +2894,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>80</v>
@@ -2777,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -2785,14 +2930,16 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>39</v>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -2818,14 +2965,16 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>42</v>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,13 +2982,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>80</v>
@@ -2861,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -2869,14 +3018,16 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>30</v>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2894,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -2902,14 +3053,16 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>32</v>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,13 +3070,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" s="12" t="n">
         <v>80</v>
@@ -2945,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -2953,14 +3106,16 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>67</v>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2978,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -2986,14 +3141,16 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>68</v>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,13 +3158,13 @@
         <v>18</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>80</v>
@@ -3029,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3037,20 +3194,26 @@
         <v>0</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="R41" s="12"/>
-      <c r="S41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>111</v>
+      <c r="S41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3072,14 +3235,16 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>112</v>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3087,13 +3252,13 @@
         <v>19</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E43" s="12" t="n">
         <v>80</v>
@@ -3115,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3123,14 +3288,16 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>30</v>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3148,24 +3315,26 @@
         <v>1</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>97</v>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3187,14 +3356,16 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="13" t="n">
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T45" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>99</v>
+      <c r="V45" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3202,13 +3373,13 @@
         <v>20</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E46" s="12" t="n">
         <v>80</v>
@@ -3234,20 +3405,26 @@
         <v>0</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="R46" s="12"/>
-      <c r="S46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>121</v>
+      <c r="S46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3269,14 +3446,16 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>122</v>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3284,13 +3463,13 @@
         <v>21</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E48" s="12" t="n">
         <v>80</v>
@@ -3312,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3320,14 +3499,16 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>30</v>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
@@ -3353,14 +3534,16 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>32</v>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3368,13 +3551,13 @@
         <v>22</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>80</v>
@@ -3400,20 +3583,26 @@
         <v>0</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="R50" s="12"/>
-      <c r="S50" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>130</v>
+      <c r="S50" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="U50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,14 +3624,16 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U51" s="13" t="s">
-        <v>131</v>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3450,13 +3641,13 @@
         <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E52" s="12" t="n">
         <v>80</v>
@@ -3482,20 +3673,22 @@
         <v>0</v>
       </c>
       <c r="P52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>48</v>
+      <c r="W52" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,14 +3710,16 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-      <c r="S53" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" s="13" t="s">
-        <v>49</v>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3532,13 +3727,13 @@
         <v>23</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E54" s="12" t="n">
         <v>80</v>
@@ -3560,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
@@ -3568,14 +3763,16 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>80</v>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -3601,14 +3798,16 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U55" s="13" t="s">
-        <v>81</v>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3616,13 +3815,13 @@
         <v>23</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E56" s="12" t="n">
         <v>80</v>
@@ -3644,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -3652,14 +3851,16 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-      <c r="S56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U56" s="13" t="s">
-        <v>80</v>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -3685,14 +3886,16 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-      <c r="S57" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>81</v>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3700,13 +3903,13 @@
         <v>22</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E58" s="12" t="n">
         <v>80</v>
@@ -3728,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -3736,20 +3939,26 @@
         <v>0</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="R58" s="12"/>
-      <c r="S58" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="13" t="s">
-        <v>111</v>
+      <c r="S58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,14 +3980,16 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-      <c r="S59" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>112</v>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3786,13 +3997,13 @@
         <v>24</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E60" s="12" t="n">
         <v>80</v>
@@ -3814,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -3822,14 +4033,16 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U60" s="13" t="s">
-        <v>143</v>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -3855,14 +4068,16 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-      <c r="S61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61" s="13" t="s">
-        <v>144</v>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3870,13 +4085,13 @@
         <v>25</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E62" s="12" t="n">
         <v>80</v>
@@ -3898,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
@@ -3906,14 +4121,16 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>67</v>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -3939,14 +4156,16 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-      <c r="S63" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>68</v>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3954,13 +4173,13 @@
         <v>26</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E64" s="12" t="n">
         <v>80</v>
@@ -3982,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -3990,14 +4209,16 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-      <c r="S64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>30</v>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -4023,14 +4244,16 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>32</v>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,13 +4261,13 @@
         <v>27</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E66" s="12" t="n">
         <v>80</v>
@@ -4066,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -4074,14 +4297,16 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>80</v>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
@@ -4107,14 +4332,16 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
-      <c r="S67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T67" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U67" s="13" t="s">
-        <v>81</v>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,13 +4349,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>80</v>
@@ -4154,20 +4381,26 @@
         <v>0</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="R68" s="12"/>
-      <c r="S68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="U68" s="13" t="s">
-        <v>130</v>
+      <c r="S68" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U68" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,14 +4422,16 @@
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
-      <c r="S69" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U69" s="13" t="s">
-        <v>131</v>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,13 +4439,13 @@
         <v>29</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>80</v>
@@ -4236,20 +4471,26 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="R70" s="12"/>
-      <c r="S70" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>159</v>
+      <c r="S70" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="U70" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4271,14 +4512,16 @@
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-      <c r="S71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>160</v>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4286,13 +4529,13 @@
         <v>30</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>80</v>
@@ -4314,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4322,20 +4565,26 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="R72" s="12"/>
-      <c r="S72" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>166</v>
+      <c r="S72" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U72" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4353,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4361,14 +4610,16 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-      <c r="S73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>169</v>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,13 +4627,13 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E74" s="12" t="n">
         <v>80</v>
@@ -4404,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -4412,20 +4663,26 @@
         <v>0</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="R74" s="12"/>
-      <c r="S74" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="U74" s="13" t="s">
-        <v>166</v>
+      <c r="S74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U74" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
@@ -4451,14 +4708,16 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T75" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="U75" s="13" t="s">
-        <v>169</v>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,13 +4725,13 @@
         <v>32</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E76" s="12" t="n">
         <v>80</v>
@@ -4494,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -4502,20 +4761,26 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="R76" s="12"/>
-      <c r="S76" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="U76" s="13" t="s">
-        <v>166</v>
+      <c r="S76" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U76" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4533,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -4541,14 +4806,16 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-      <c r="S77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T77" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="U77" s="13" t="s">
-        <v>169</v>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4556,13 +4823,13 @@
         <v>33</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E78" s="12" t="n">
         <v>80</v>
@@ -4584,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
@@ -4592,14 +4859,16 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-      <c r="S78" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U78" s="13" t="s">
-        <v>39</v>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
@@ -4625,14 +4894,16 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T79" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U79" s="13" t="s">
-        <v>42</v>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4640,13 +4911,13 @@
         <v>34</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E80" s="12" t="n">
         <v>80</v>
@@ -4668,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
@@ -4676,14 +4947,16 @@
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-      <c r="S80" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U80" s="13" t="s">
-        <v>178</v>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4701,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
@@ -4709,14 +4982,16 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-      <c r="S81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T81" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U81" s="13" t="s">
-        <v>179</v>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4724,13 +4999,13 @@
         <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E82" s="12" t="n">
         <v>80</v>
@@ -4752,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
@@ -4760,14 +5035,16 @@
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U82" s="13" t="s">
-        <v>30</v>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
@@ -4793,14 +5070,16 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T83" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U83" s="13" t="s">
-        <v>32</v>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4808,13 +5087,13 @@
         <v>36</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E84" s="12" t="n">
         <v>80</v>
@@ -4836,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
@@ -4844,20 +5123,22 @@
         <v>0</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="R84" s="12"/>
-      <c r="S84" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U84" s="13" t="s">
-        <v>186</v>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4875,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
@@ -4883,14 +5164,16 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-      <c r="S85" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T85" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U85" s="13" t="s">
-        <v>188</v>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,13 +5181,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E86" s="12" t="n">
         <v>9615</v>
@@ -4926,30 +5209,32 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="R86" s="12"/>
-      <c r="S86" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T86" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>196</v>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -4975,14 +5260,16 @@
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="U87" s="13" t="s">
-        <v>186</v>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W87" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4990,13 +5277,13 @@
         <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E88" s="12" t="n">
         <v>80</v>
@@ -5018,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -5026,20 +5313,22 @@
         <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="R88" s="12"/>
-      <c r="S88" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="U88" s="13" t="s">
-        <v>205</v>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,24 +5346,26 @@
         <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U89" s="13" t="s">
-        <v>209</v>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W89" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -5100,20 +5391,22 @@
         <v>3</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="R90" s="12"/>
-      <c r="S90" s="13" t="n">
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T90" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="U90" s="13" t="s">
-        <v>214</v>
+      <c r="V90" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,24 +5424,26 @@
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="13" t="n">
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="T91" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="U91" s="13" t="s">
-        <v>217</v>
+      <c r="V91" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,13 +5451,13 @@
         <v>39</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E92" s="12" t="n">
         <v>80</v>
@@ -5184,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -5192,20 +5487,22 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="R92" s="12"/>
-      <c r="S92" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T92" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="U92" s="13" t="s">
-        <v>205</v>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W92" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,24 +5520,26 @@
         <v>1</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
-      <c r="S93" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T93" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U93" s="13" t="s">
-        <v>209</v>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W93" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
@@ -5266,20 +5565,22 @@
         <v>3</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="R94" s="12"/>
-      <c r="S94" s="13" t="n">
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T94" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="U94" s="13" t="s">
-        <v>214</v>
+      <c r="V94" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W94" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,24 +5598,26 @@
         <v>2</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
-      <c r="S95" s="13" t="n">
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="T95" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="U95" s="13" t="s">
-        <v>217</v>
+      <c r="V95" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W95" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5322,13 +5625,13 @@
         <v>40</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E96" s="12" t="n">
         <v>80</v>
@@ -5350,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -5358,20 +5661,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="R96" s="12"/>
-      <c r="S96" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T96" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="U96" s="13" t="s">
-        <v>205</v>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W96" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,24 +5694,26 @@
         <v>1</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M97" s="12"/>
       <c r="N97" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
-      <c r="S97" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T97" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U97" s="13" t="s">
-        <v>209</v>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W97" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5731,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -5432,20 +5739,22 @@
         <v>3</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="R98" s="12"/>
-      <c r="S98" s="13" t="n">
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T98" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="U98" s="13" t="s">
-        <v>214</v>
+      <c r="V98" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W98" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,24 +5772,26 @@
         <v>2</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
-      <c r="S99" s="13" t="n">
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="T99" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="U99" s="13" t="s">
-        <v>217</v>
+      <c r="V99" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W99" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5488,13 +5799,13 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E100" s="12" t="n">
         <v>80</v>
@@ -5516,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -5524,20 +5835,22 @@
         <v>0</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="R100" s="12"/>
-      <c r="S100" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T100" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="U100" s="13" t="s">
-        <v>205</v>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W100" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,24 +5868,26 @@
         <v>1</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M101" s="12"/>
       <c r="N101" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
-      <c r="S101" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T101" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U101" s="13" t="s">
-        <v>209</v>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W101" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -5598,20 +5913,22 @@
         <v>3</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="R102" s="12"/>
-      <c r="S102" s="13" t="n">
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T102" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="U102" s="13" t="s">
-        <v>214</v>
+      <c r="V102" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W102" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,24 +5946,26 @@
         <v>2</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M103" s="12"/>
       <c r="N103" s="12" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
-      <c r="S103" s="13" t="n">
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="T103" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="U103" s="13" t="s">
-        <v>217</v>
+      <c r="V103" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W103" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5654,13 +5973,13 @@
         <v>42</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E104" s="12" t="n">
         <v>80</v>
@@ -5682,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
@@ -5690,20 +6009,22 @@
         <v>0</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="R104" s="12"/>
-      <c r="S104" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T104" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U104" s="13" t="s">
-        <v>186</v>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W104" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -5729,14 +6050,16 @@
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
-      <c r="S105" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T105" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U105" s="13" t="s">
-        <v>188</v>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W105" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5744,13 +6067,13 @@
         <v>43</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E106" s="12" t="n">
         <v>80</v>
@@ -5772,24 +6095,26 @@
         <v>0</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
       <c r="R106" s="12"/>
-      <c r="S106" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T106" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U106" s="13" t="s">
-        <v>186</v>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W106" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,24 +6132,26 @@
         <v>1</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
-      <c r="S107" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T107" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U107" s="13" t="s">
-        <v>230</v>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W107" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5832,13 +6159,13 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E108" s="12" t="n">
         <v>80</v>
@@ -5860,24 +6187,26 @@
         <v>0</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
-      <c r="S108" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U108" s="13" t="s">
-        <v>186</v>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W108" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,24 +6224,26 @@
         <v>1</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M109" s="12"/>
       <c r="N109" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
-      <c r="S109" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T109" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U109" s="13" t="s">
-        <v>230</v>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W109" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5920,13 +6251,13 @@
         <v>45</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E110" s="12" t="n">
         <v>80</v>
@@ -5948,24 +6279,26 @@
         <v>0</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M110" s="12"/>
       <c r="N110" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
-      <c r="S110" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T110" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U110" s="13" t="s">
-        <v>186</v>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W110" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,24 +6316,26 @@
         <v>1</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M111" s="12"/>
       <c r="N111" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
-      <c r="S111" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T111" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U111" s="13" t="s">
-        <v>230</v>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W111" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6008,13 +6343,13 @@
         <v>46</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E112" s="12" t="n">
         <v>80</v>
@@ -6036,24 +6371,26 @@
         <v>0</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
-      <c r="S112" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T112" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U112" s="13" t="s">
-        <v>186</v>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W112" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,33 +6408,34 @@
         <v>1</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
-      <c r="S113" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T113" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="U113" s="13" t="s">
-        <v>230</v>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W113" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="753">
+  <mergeCells count="858">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -6112,6 +6450,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -6126,6 +6466,8 @@
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -6140,6 +6482,8 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -6154,6 +6498,8 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -6172,6 +6518,8 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -6190,6 +6538,8 @@
     <mergeCell ref="P14:P16"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -6204,6 +6554,8 @@
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -6222,6 +6574,8 @@
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -6236,6 +6590,8 @@
     <mergeCell ref="P22:P23"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -6254,6 +6610,8 @@
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
@@ -6268,6 +6626,8 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -6282,6 +6642,8 @@
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C32"/>
@@ -6296,6 +6658,8 @@
     <mergeCell ref="P30:P32"/>
     <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="T30:T32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -6310,6 +6674,8 @@
     <mergeCell ref="P33:P34"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -6324,6 +6690,8 @@
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
@@ -6338,6 +6706,8 @@
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -6352,6 +6722,8 @@
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="Q39:Q40"/>
     <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -6370,6 +6742,8 @@
     <mergeCell ref="P41:P42"/>
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:C45"/>
@@ -6384,6 +6758,8 @@
     <mergeCell ref="P43:P45"/>
     <mergeCell ref="Q43:Q45"/>
     <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S45"/>
+    <mergeCell ref="T43:T45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
@@ -6402,6 +6778,8 @@
     <mergeCell ref="P46:P47"/>
     <mergeCell ref="Q46:Q47"/>
     <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
@@ -6416,6 +6794,8 @@
     <mergeCell ref="P48:P49"/>
     <mergeCell ref="Q48:Q49"/>
     <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="T48:T49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
@@ -6434,6 +6814,8 @@
     <mergeCell ref="P50:P51"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
@@ -6452,6 +6834,8 @@
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
@@ -6466,6 +6850,8 @@
     <mergeCell ref="P54:P55"/>
     <mergeCell ref="Q54:Q55"/>
     <mergeCell ref="R54:R55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
@@ -6480,6 +6866,8 @@
     <mergeCell ref="P56:P57"/>
     <mergeCell ref="Q56:Q57"/>
     <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="T56:T57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
@@ -6498,6 +6886,8 @@
     <mergeCell ref="P58:P59"/>
     <mergeCell ref="Q58:Q59"/>
     <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
@@ -6514,6 +6904,8 @@
     <mergeCell ref="P60:P61"/>
     <mergeCell ref="Q60:Q61"/>
     <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="T60:T61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:C63"/>
@@ -6528,6 +6920,8 @@
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="Q62:Q63"/>
     <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="T62:T63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -6542,6 +6936,8 @@
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="Q64:Q65"/>
     <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="T64:T65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:C67"/>
@@ -6556,6 +6952,8 @@
     <mergeCell ref="P66:P67"/>
     <mergeCell ref="Q66:Q67"/>
     <mergeCell ref="R66:R67"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="T66:T67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
@@ -6574,6 +6972,8 @@
     <mergeCell ref="P68:P69"/>
     <mergeCell ref="Q68:Q69"/>
     <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="T68:T69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
@@ -6592,6 +6992,8 @@
     <mergeCell ref="P70:P71"/>
     <mergeCell ref="Q70:Q71"/>
     <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="T70:T71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="C72:C73"/>
@@ -6606,6 +7008,8 @@
     <mergeCell ref="P72:P73"/>
     <mergeCell ref="Q72:Q73"/>
     <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
@@ -6620,6 +7024,8 @@
     <mergeCell ref="P74:P75"/>
     <mergeCell ref="Q74:Q75"/>
     <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
@@ -6634,6 +7040,8 @@
     <mergeCell ref="P76:P77"/>
     <mergeCell ref="Q76:Q77"/>
     <mergeCell ref="R76:R77"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="T76:T77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
@@ -6648,6 +7056,8 @@
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:T79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="C80:C81"/>
@@ -6662,6 +7072,8 @@
     <mergeCell ref="P80:P81"/>
     <mergeCell ref="Q80:Q81"/>
     <mergeCell ref="R80:R81"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="T80:T81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
@@ -6676,6 +7088,8 @@
     <mergeCell ref="P82:P83"/>
     <mergeCell ref="Q82:Q83"/>
     <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="C84:C85"/>
@@ -6690,6 +7104,8 @@
     <mergeCell ref="P84:P85"/>
     <mergeCell ref="Q84:Q85"/>
     <mergeCell ref="R84:R85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="C86:C87"/>
@@ -6704,6 +7120,8 @@
     <mergeCell ref="P86:P87"/>
     <mergeCell ref="Q86:Q87"/>
     <mergeCell ref="R86:R87"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:T87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="B88:B91"/>
     <mergeCell ref="C88:C91"/>
@@ -6718,10 +7136,14 @@
     <mergeCell ref="P88:P89"/>
     <mergeCell ref="Q88:Q89"/>
     <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
     <mergeCell ref="O90:O91"/>
     <mergeCell ref="P90:P91"/>
     <mergeCell ref="Q90:Q91"/>
     <mergeCell ref="R90:R91"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="T90:T91"/>
     <mergeCell ref="A92:A95"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="C92:C95"/>
@@ -6736,10 +7158,14 @@
     <mergeCell ref="P92:P93"/>
     <mergeCell ref="Q92:Q93"/>
     <mergeCell ref="R92:R93"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="T92:T93"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
     <mergeCell ref="Q94:Q95"/>
     <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="T94:T95"/>
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="C96:C99"/>
@@ -6754,10 +7180,14 @@
     <mergeCell ref="P96:P97"/>
     <mergeCell ref="Q96:Q97"/>
     <mergeCell ref="R96:R97"/>
+    <mergeCell ref="S96:S97"/>
+    <mergeCell ref="T96:T97"/>
     <mergeCell ref="O98:O99"/>
     <mergeCell ref="P98:P99"/>
     <mergeCell ref="Q98:Q99"/>
     <mergeCell ref="R98:R99"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="T98:T99"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="B100:B103"/>
     <mergeCell ref="C100:C103"/>
@@ -6772,10 +7202,14 @@
     <mergeCell ref="P100:P101"/>
     <mergeCell ref="Q100:Q101"/>
     <mergeCell ref="R100:R101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="T100:T101"/>
     <mergeCell ref="O102:O103"/>
     <mergeCell ref="P102:P103"/>
     <mergeCell ref="Q102:Q103"/>
     <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="T102:T103"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
@@ -6790,6 +7224,8 @@
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="Q104:Q105"/>
     <mergeCell ref="R104:R105"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="T104:T105"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="C106:C107"/>
@@ -6804,6 +7240,8 @@
     <mergeCell ref="P106:P107"/>
     <mergeCell ref="Q106:Q107"/>
     <mergeCell ref="R106:R107"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="T106:T107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="C108:C109"/>
@@ -6818,6 +7256,8 @@
     <mergeCell ref="P108:P109"/>
     <mergeCell ref="Q108:Q109"/>
     <mergeCell ref="R108:R109"/>
+    <mergeCell ref="S108:S109"/>
+    <mergeCell ref="T108:T109"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="C110:C111"/>
@@ -6832,6 +7272,8 @@
     <mergeCell ref="P110:P111"/>
     <mergeCell ref="Q110:Q111"/>
     <mergeCell ref="R110:R111"/>
+    <mergeCell ref="S110:S111"/>
+    <mergeCell ref="T110:T111"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:C113"/>
@@ -6846,6 +7288,8 @@
     <mergeCell ref="P112:P113"/>
     <mergeCell ref="Q112:Q113"/>
     <mergeCell ref="R112:R113"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="T112:T113"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6878,13 +7322,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="18" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6899,7 +7343,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6914,7 +7358,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -6938,13 +7382,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -6959,7 +7403,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -6974,7 +7418,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -6984,13 +7428,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7519,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,7 +7527,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,7 +7535,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,7 +7543,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,7 +7551,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7559,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,7 +7567,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,7 +7575,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,7 +7583,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7603,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,7 +7614,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,7 +7622,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,7 +7630,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7194,7 +7638,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7646,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,7 +7654,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,7 +7662,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,7 +7670,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,7 +7678,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,7 +7686,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7250,7 +7694,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7702,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,10 +7710,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,7 +7721,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7729,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,21 +7737,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +7759,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,7 +7767,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,7 +7775,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,7 +7789,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,7 +7803,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,7 +7817,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,7 +7831,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,7 +7839,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="305">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>sense_panels</t>
+  </si>
+  <si>
+    <t>включитьт</t>
+  </si>
+  <si>
+    <t>nm</t>
   </si>
   <si>
     <t>Touched</t>
@@ -1349,8 +1355,8 @@
   </sheetPr>
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S114" activeCellId="0" sqref="S114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2106,36 +2112,44 @@
       <c r="J17" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="K17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="O17" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W17" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,10 +2157,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>30</v>
@@ -2188,7 +2202,7 @@
         <v>31</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2223,7 +2237,7 @@
         <v>33</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2231,10 +2245,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>30</v>
@@ -2259,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -2267,26 +2281,26 @@
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U20" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W20" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2325,10 +2339,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>30</v>
@@ -2370,7 +2384,7 @@
         <v>40</v>
       </c>
       <c r="W22" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,7 +2419,7 @@
         <v>43</v>
       </c>
       <c r="W23" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2413,10 +2427,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>30</v>
@@ -2441,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2449,26 +2463,26 @@
         <v>0</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U24" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="W25" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2507,10 +2521,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>30</v>
@@ -2595,10 +2609,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>30</v>
@@ -2683,10 +2697,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>30</v>
@@ -2746,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -2760,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2781,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -2795,10 +2809,10 @@
         <v>2</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2820,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>30</v>
@@ -2851,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2900,7 @@
         <v>43</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2908,10 @@
         <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>30</v>
@@ -2982,10 +2996,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>30</v>
@@ -3070,10 +3084,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>30</v>
@@ -3115,7 +3129,7 @@
         <v>31</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3150,7 +3164,7 @@
         <v>33</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3172,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>30</v>
@@ -3186,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3194,26 +3208,26 @@
         <v>0</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W41" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3241,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3252,10 +3266,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>30</v>
@@ -3319,7 +3333,7 @@
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -3331,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3362,10 +3376,10 @@
         <v>2</v>
       </c>
       <c r="V45" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3373,10 +3387,10 @@
         <v>20</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>30</v>
@@ -3405,26 +3419,26 @@
         <v>0</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3452,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="V47" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W47" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,10 +3477,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>30</v>
@@ -3551,10 +3565,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>30</v>
@@ -3583,26 +3597,26 @@
         <v>0</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U50" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V50" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W50" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3644,10 @@
         <v>1</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W51" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3641,10 +3655,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>30</v>
@@ -3727,10 +3741,10 @@
         <v>23</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>30</v>
@@ -3772,7 +3786,7 @@
         <v>40</v>
       </c>
       <c r="W54" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3821,7 @@
         <v>43</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3815,10 +3829,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>30</v>
@@ -3860,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="W56" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,7 +3909,7 @@
         <v>43</v>
       </c>
       <c r="W57" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3903,10 +3917,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>30</v>
@@ -3931,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -3939,26 +3953,26 @@
         <v>0</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U58" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W58" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,10 +4000,10 @@
         <v>1</v>
       </c>
       <c r="V59" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W59" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3997,10 +4011,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>30</v>
@@ -4042,7 +4056,7 @@
         <v>31</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4091,7 @@
         <v>33</v>
       </c>
       <c r="W61" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4085,10 +4099,10 @@
         <v>25</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>30</v>
@@ -4130,7 +4144,7 @@
         <v>31</v>
       </c>
       <c r="W62" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="W63" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4173,10 +4187,10 @@
         <v>26</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>30</v>
@@ -4261,10 +4275,10 @@
         <v>27</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>30</v>
@@ -4306,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="W66" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,7 +4355,7 @@
         <v>43</v>
       </c>
       <c r="W67" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,10 +4363,10 @@
         <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>30</v>
@@ -4381,26 +4395,26 @@
         <v>0</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R68" s="12"/>
       <c r="S68" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W68" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,10 +4442,10 @@
         <v>1</v>
       </c>
       <c r="V69" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W69" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,10 +4453,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>30</v>
@@ -4471,26 +4485,26 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R70" s="12"/>
       <c r="S70" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U70" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W70" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4518,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W71" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4529,10 +4543,10 @@
         <v>30</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>30</v>
@@ -4557,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4565,26 +4579,26 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U72" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W72" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4602,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4616,10 +4630,10 @@
         <v>1</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W73" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,10 +4641,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>30</v>
@@ -4655,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -4663,26 +4677,26 @@
         <v>0</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R74" s="12"/>
       <c r="S74" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U74" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
@@ -4714,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W75" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4739,10 @@
         <v>32</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>30</v>
@@ -4753,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -4761,26 +4775,26 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R76" s="12"/>
       <c r="S76" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="V76" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W76" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4798,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -4812,10 +4826,10 @@
         <v>1</v>
       </c>
       <c r="V77" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W77" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,10 +4837,10 @@
         <v>33</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>30</v>
@@ -4911,10 +4925,10 @@
         <v>34</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>30</v>
@@ -4956,7 +4970,7 @@
         <v>31</v>
       </c>
       <c r="W80" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4991,7 +5005,7 @@
         <v>33</v>
       </c>
       <c r="W81" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4999,10 +5013,10 @@
         <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>30</v>
@@ -5087,10 +5101,10 @@
         <v>36</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>30</v>
@@ -5115,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
@@ -5123,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
@@ -5135,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="V84" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W84" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
@@ -5170,10 +5184,10 @@
         <v>1</v>
       </c>
       <c r="V85" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W85" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,13 +5195,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E86" s="12" t="n">
         <v>9615</v>
@@ -5209,20 +5223,20 @@
         <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M86" s="12"/>
       <c r="N86" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
@@ -5231,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="V86" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W86" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -5266,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="V87" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W87" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5277,10 +5291,10 @@
         <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>30</v>
@@ -5305,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -5313,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
@@ -5325,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="V88" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W88" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,11 +5360,11 @@
         <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
@@ -5362,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W89" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -5391,10 +5405,10 @@
         <v>3</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
@@ -5403,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="V90" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W90" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,11 +5438,11 @@
         <v>2</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
@@ -5440,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="V91" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W91" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5451,10 +5465,10 @@
         <v>39</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>30</v>
@@ -5479,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -5487,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
@@ -5499,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="V92" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W92" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,11 +5534,11 @@
         <v>1</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M93" s="12"/>
       <c r="N93" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -5536,10 +5550,10 @@
         <v>1</v>
       </c>
       <c r="V93" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W93" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
@@ -5565,10 +5579,10 @@
         <v>3</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
@@ -5577,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="V94" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W94" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,11 +5612,11 @@
         <v>2</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -5614,10 +5628,10 @@
         <v>3</v>
       </c>
       <c r="V95" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W95" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5625,10 +5639,10 @@
         <v>40</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>30</v>
@@ -5653,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -5661,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
@@ -5673,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="V96" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W96" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,11 +5708,11 @@
         <v>1</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M97" s="12"/>
       <c r="N97" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -5710,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="V97" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W97" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -5739,10 +5753,10 @@
         <v>3</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
@@ -5751,10 +5765,10 @@
         <v>2</v>
       </c>
       <c r="V98" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W98" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5772,11 +5786,11 @@
         <v>2</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
@@ -5788,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="V99" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W99" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5799,10 +5813,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>30</v>
@@ -5827,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -5835,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
@@ -5847,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="V100" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W100" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,11 +5882,11 @@
         <v>1</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M101" s="12"/>
       <c r="N101" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
@@ -5884,10 +5898,10 @@
         <v>1</v>
       </c>
       <c r="V101" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W101" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -5913,10 +5927,10 @@
         <v>3</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
@@ -5925,10 +5939,10 @@
         <v>2</v>
       </c>
       <c r="V102" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W102" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,11 +5960,11 @@
         <v>2</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M103" s="12"/>
       <c r="N103" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
@@ -5962,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="V103" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W103" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5973,10 +5987,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>30</v>
@@ -6001,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
@@ -6009,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
@@ -6021,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="V104" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W104" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -6056,10 +6070,10 @@
         <v>1</v>
       </c>
       <c r="V105" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W105" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6067,10 +6081,10 @@
         <v>43</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>30</v>
@@ -6095,11 +6109,11 @@
         <v>0</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -6111,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="V106" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W106" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,11 +6146,11 @@
         <v>1</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -6148,10 +6162,10 @@
         <v>1</v>
       </c>
       <c r="V107" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W107" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6159,10 +6173,10 @@
         <v>44</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>30</v>
@@ -6187,11 +6201,11 @@
         <v>0</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M108" s="12"/>
       <c r="N108" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -6203,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="V108" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W108" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,11 +6238,11 @@
         <v>1</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M109" s="12"/>
       <c r="N109" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -6240,10 +6254,10 @@
         <v>1</v>
       </c>
       <c r="V109" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W109" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6251,10 +6265,10 @@
         <v>45</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>30</v>
@@ -6279,11 +6293,11 @@
         <v>0</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M110" s="12"/>
       <c r="N110" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
@@ -6295,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="V110" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W110" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,11 +6330,11 @@
         <v>1</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M111" s="12"/>
       <c r="N111" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
@@ -6332,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="V111" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W111" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6343,10 +6357,10 @@
         <v>46</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>30</v>
@@ -6371,11 +6385,11 @@
         <v>0</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -6387,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="V112" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W112" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,11 +6422,11 @@
         <v>1</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
@@ -6424,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="V113" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W113" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7322,13 +7336,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -7343,7 +7357,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7358,7 +7372,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -7382,13 +7396,13 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -7403,7 +7417,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -7418,7 +7432,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -7428,13 +7442,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7519,7 +7533,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +7541,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +7549,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +7557,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,7 +7565,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,7 +7573,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,7 +7581,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,7 +7589,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,7 +7597,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,7 +7617,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7614,7 +7628,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7622,7 +7636,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7644,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7638,7 +7652,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,7 +7660,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,7 +7668,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7662,7 +7676,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7684,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,7 +7692,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7700,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7694,7 +7708,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7702,7 +7716,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,10 +7724,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +7735,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +7743,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,21 +7751,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,7 +7773,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,7 +7781,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,7 +7789,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,7 +7803,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,7 +7817,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +7831,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,7 +7845,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,7 +7853,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="253">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -115,12 +115,21 @@
  в веб-интерфейсе</t>
   </si>
   <si>
+    <t>smoke_machine</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Выключена</t>
+  </si>
+  <si>
     <t>On</t>
   </si>
   <si>
+    <t>Включена</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
@@ -160,10 +169,70 @@
     <t>Открыт</t>
   </si>
   <si>
+    <t>Выключены</t>
+  </si>
+  <si>
+    <t>Включены</t>
+  </si>
+  <si>
     <t>Выключено</t>
   </si>
   <si>
     <t>Включено</t>
+  </si>
+  <si>
+    <t>audio_player1</t>
+  </si>
+  <si>
+    <t>Stop channel1</t>
+  </si>
+  <si>
+    <t>CH1_playback_finished</t>
+  </si>
+  <si>
+    <t>Ch1_stop_ch2_stop</t>
+  </si>
+  <si>
+    <t>Оба канала выключены</t>
+  </si>
+  <si>
+    <t>Play channel1</t>
+  </si>
+  <si>
+    <t>путь к файлу и режим повтора</t>
+  </si>
+  <si>
+    <t>Ch1_play_ch2_stop</t>
+  </si>
+  <si>
+    <t>Только канал 1 включен</t>
+  </si>
+  <si>
+    <t>Stop channel2</t>
+  </si>
+  <si>
+    <t>CH2_playback_finished</t>
+  </si>
+  <si>
+    <t>Ch1_stop_ch2_play</t>
+  </si>
+  <si>
+    <t>Только канал 2 включен</t>
+  </si>
+  <si>
+    <t>Play channel2</t>
+  </si>
+  <si>
+    <t>Ch1_play_ch2_play</t>
+  </si>
+  <si>
+    <t>Оба канала включены</t>
+  </si>
+  <si>
+    <t>audio_player2</t>
+  </si>
+  <si>
+    <t>audio_player3</t>
   </si>
   <si>
     <t>Как формируется параметр видеоплеера</t>
@@ -473,6 +542,242 @@
     <t>Светит непрерывно</t>
   </si>
   <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Датчик дутья печки</t>
+  </si>
+  <si>
+    <t>Задачка с 1 рычагом</t>
+  </si>
+  <si>
+    <t>Подсветка стонущего чувака</t>
+  </si>
+  <si>
+    <t>Движения стонущего чувака</t>
+  </si>
+  <si>
+    <t>Аварийный режим</t>
+  </si>
+  <si>
+    <t>Дверь3</t>
+  </si>
+  <si>
+    <t>Входная дверь</t>
+  </si>
+  <si>
+    <t>Дверь в лабиринт</t>
+  </si>
+  <si>
+    <t>Датчик шарика в пинболе</t>
+  </si>
+  <si>
+    <t>Соединение аудиоплеера3
+с колонками стонущего чувака</t>
+  </si>
+  <si>
+    <t>Соединение аудиоплеера3
+с колонками скелета</t>
+  </si>
+  <si>
+    <t>Соединение аудиоплеера3
+с колонками падающего потолка</t>
+  </si>
+  <si>
+    <t>Stove_flow_sensor</t>
+  </si>
+  <si>
+    <t>One_lever_result</t>
+  </si>
+  <si>
+    <t>Dude_backlight</t>
+  </si>
+  <si>
+    <t>Dude_motion</t>
+  </si>
+  <si>
+    <t>Alarm_mode</t>
+  </si>
+  <si>
+    <t>Door3</t>
+  </si>
+  <si>
+    <t>Labyrinth_door</t>
+  </si>
+  <si>
+    <t>Entrance_door</t>
+  </si>
+  <si>
+    <t>Pinball_ball_sensor</t>
+  </si>
+  <si>
+    <t>Dude_sound</t>
+  </si>
+  <si>
+    <t>Skeleton_sound</t>
+  </si>
+  <si>
+    <t>Falling_roof_sound</t>
+  </si>
+  <si>
+    <t>Not_enought</t>
+  </si>
+  <si>
+    <t>Недостаточно</t>
+  </si>
+  <si>
+    <t>Достаточно</t>
+  </si>
+  <si>
+    <t>opened</t>
+  </si>
+  <si>
+    <t>catched</t>
+  </si>
+  <si>
+    <t>Имитировать 
+дутье</t>
+  </si>
+  <si>
+    <t>Имитировать
+открытие</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Enought</t>
+  </si>
+  <si>
+    <t>Not_catched</t>
+  </si>
+  <si>
+    <t>Сatched</t>
+  </si>
+  <si>
+    <t>Обнаружен</t>
+  </si>
+  <si>
+    <t>Не обнаружен</t>
+  </si>
+  <si>
+    <t>Catched</t>
+  </si>
+  <si>
+    <t>Сенсор падающего потолка</t>
+  </si>
+  <si>
+    <t>Датчик движения скелета</t>
+  </si>
+  <si>
+    <t>Глаза скелета</t>
+  </si>
+  <si>
+    <t>Датчик звука скелета</t>
+  </si>
+  <si>
+    <t>Действие скелета</t>
+  </si>
+  <si>
+    <t>Падающий потолок ч1</t>
+  </si>
+  <si>
+    <t>Падающий потолок ч2</t>
+  </si>
+  <si>
+    <t>Падающий потолок ч3</t>
+  </si>
+  <si>
+    <t>Угол Флага</t>
+  </si>
+  <si>
+    <t>Аудиоплеер №1
+Фоновый звук кроме лабиринта</t>
+  </si>
+  <si>
+    <t>Аудиоплеер №2
+Фоновый звук лабиринта</t>
+  </si>
+  <si>
+    <t>Аудиоплеер №3
+Звуки чувака, скелета и 
+падающего потолка</t>
+  </si>
+  <si>
+    <t>falling_roof_sensor</t>
+  </si>
+  <si>
+    <t>skeleton_eyes</t>
+  </si>
+  <si>
+    <t>skeleton_sound_sensor</t>
+  </si>
+  <si>
+    <t>skeleton_pir_sensor</t>
+  </si>
+  <si>
+    <t>skeleton_action</t>
+  </si>
+  <si>
+    <t>falling_roof_part1</t>
+  </si>
+  <si>
+    <t>falling_roof_par3</t>
+  </si>
+  <si>
+    <t>falling_roof_part2</t>
+  </si>
+  <si>
+    <t>flag_corner</t>
+  </si>
+  <si>
+    <t>192.168.1.157</t>
+  </si>
+  <si>
+    <t>192.168.1.158</t>
+  </si>
+  <si>
+    <t>192.168.1.159</t>
+  </si>
+  <si>
+    <t>Set_bright</t>
+  </si>
+  <si>
+    <t>Установить яркость</t>
+  </si>
+  <si>
+    <t>Скважность шим</t>
+  </si>
+  <si>
+    <t>Имитировать
+обнаружение</t>
+  </si>
+  <si>
+    <t>Стоп канал1</t>
+  </si>
+  <si>
+    <t>Воспр. Канал1</t>
+  </si>
+  <si>
+    <t>Воспр. Канал2</t>
+  </si>
+  <si>
+    <t>Стоп канал2</t>
+  </si>
+  <si>
+    <t>non_stop_screaming</t>
+  </si>
+  <si>
+    <t>Имитировать 
+непрерывный крик</t>
+  </si>
+  <si>
     <t>key_holder</t>
   </si>
   <si>
@@ -480,6 +785,12 @@
   </si>
   <si>
     <t>hold</t>
+  </si>
+  <si>
+    <t>Им.ок. воспр. канал 1</t>
+  </si>
+  <si>
+    <t>Им.ок. воспр. канал 2</t>
   </si>
   <si>
     <t>Авто</t>
@@ -1238,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K83" sqref="A28:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1398,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -1422,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="29"/>
@@ -1438,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75">
@@ -1459,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="29"/>
@@ -1475,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75">
@@ -1486,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1510,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="29"/>
@@ -1526,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="13.9" customHeight="1">
@@ -1547,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="29"/>
@@ -1563,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13.9" customHeight="1">
@@ -1574,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -1602,26 +1913,26 @@
         <v>0</v>
       </c>
       <c r="P8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>124</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="R8" s="29"/>
       <c r="S8" s="29" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="U8" s="23">
         <v>0</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="26.1" customHeight="1">
@@ -1649,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.9" customHeight="1">
@@ -1660,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -1688,26 +1999,26 @@
         <v>0</v>
       </c>
       <c r="P10" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>124</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="29" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="T10" s="29" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="U10" s="23">
         <v>0</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1">
@@ -1735,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="W11" s="23" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="13.9" customHeight="1">
@@ -1746,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -1774,26 +2085,26 @@
         <v>0</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="R12" s="29"/>
       <c r="S12" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U12" s="23">
         <v>0</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W12" s="23" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1">
@@ -1821,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75">
@@ -1832,10 +2143,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -1856,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="29"/>
@@ -1872,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75">
@@ -1893,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="29"/>
@@ -1909,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75">
@@ -1920,10 +2231,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -1948,26 +2259,26 @@
         <v>0</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="R16" s="29"/>
       <c r="S16" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U16" s="23">
         <v>0</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="21" customHeight="1">
@@ -1995,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75">
@@ -2006,10 +2317,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -2030,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="29"/>
@@ -2046,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="13.9" customHeight="1">
@@ -2067,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="29"/>
@@ -2083,10 +2394,10 @@
         <v>1</v>
       </c>
       <c r="V19" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13.9" customHeight="1">
@@ -2094,10 +2405,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -2118,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="29"/>
@@ -2134,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="23" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="21.75" customHeight="1">
@@ -2155,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="29"/>
@@ -2171,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="13.9" customHeight="1">
@@ -2182,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2206,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="29"/>
@@ -2222,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W22" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1">
@@ -2243,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="29"/>
@@ -2259,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="V23" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1">
@@ -2270,10 +2581,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -2294,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
@@ -2310,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="25" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="W24" s="25" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75">
@@ -2331,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -2347,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="V25" s="25" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="W25" s="25" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="13.9" customHeight="1">
@@ -2358,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -2382,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="29"/>
@@ -2398,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W26" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75">
@@ -2419,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="29"/>
@@ -2435,36 +2746,66 @@
         <v>1</v>
       </c>
       <c r="V27" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="32">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="F28" s="29">
+        <v>2</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29">
+        <v>2</v>
+      </c>
       <c r="J28" s="29"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="28"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="28"/>
+      <c r="O28" s="29">
+        <v>0</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="S28" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="U28" s="23">
+        <v>0</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="19.5" customHeight="1">
       <c r="A29" s="33"/>
@@ -2487,34 +2828,70 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
+      <c r="U29" s="23">
+        <v>1</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="32">
+        <v>14</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="F30" s="29">
+        <v>2</v>
+      </c>
+      <c r="G30" s="29">
+        <v>1</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29">
+        <v>2</v>
+      </c>
       <c r="J30" s="29"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="28"/>
       <c r="N30" s="26"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="28"/>
+      <c r="O30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="28" t="s">
+        <v>148</v>
+      </c>
       <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
+      <c r="S30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="23">
+        <v>0</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="32"/>
@@ -2537,24 +2914,50 @@
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
+      <c r="U31" s="23">
+        <v>1</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="23" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="15.75">
-      <c r="A32" s="32"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="F32" s="29">
+        <v>2</v>
+      </c>
+      <c r="G32" s="29">
+        <v>2</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29">
+        <v>2</v>
+      </c>
       <c r="J32" s="29"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="K32" s="23">
+        <v>0</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N32" s="23"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -2562,9 +2965,15 @@
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="U32" s="23">
+        <v>0</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:23" ht="15.75">
       <c r="A33" s="33"/>
@@ -2577,9 +2986,15 @@
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="K33" s="23">
+        <v>1</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N33" s="23"/>
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
@@ -2587,24 +3002,50 @@
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
+      <c r="U33" s="23">
+        <v>1</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:23" ht="15.75">
-      <c r="A34" s="32"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="32">
+        <v>16</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="F34" s="29">
+        <v>2</v>
+      </c>
+      <c r="G34" s="29">
+        <v>3</v>
+      </c>
+      <c r="H34" s="29">
+        <v>1</v>
+      </c>
+      <c r="I34" s="29">
+        <v>2</v>
+      </c>
       <c r="J34" s="29"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N34" s="23"/>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
@@ -2612,9 +3053,15 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
+      <c r="U34" s="23">
+        <v>0</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:23" ht="15.75">
       <c r="A35" s="32"/>
@@ -2627,9 +3074,15 @@
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="K35" s="23">
+        <v>1</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N35" s="23"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
@@ -2637,20 +3090,40 @@
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
       <c r="T35" s="29"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
+      <c r="U35" s="23">
+        <v>1</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:23" ht="15.75">
-      <c r="A36" s="32"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="32">
+        <v>17</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="F36" s="29">
+        <v>2</v>
+      </c>
+      <c r="G36" s="29">
+        <v>4</v>
+      </c>
+      <c r="H36" s="29">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29">
+        <v>2</v>
+      </c>
       <c r="J36" s="29"/>
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
@@ -2662,9 +3135,15 @@
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
       <c r="T36" s="29"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
+      <c r="U36" s="23">
+        <v>0</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1">
       <c r="A37" s="33"/>
@@ -2687,24 +3166,50 @@
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
+      <c r="U37" s="23">
+        <v>1</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:23" ht="15.75">
-      <c r="A38" s="32"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="32">
+        <v>18</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="F38" s="29">
+        <v>2</v>
+      </c>
+      <c r="G38" s="29">
+        <v>5</v>
+      </c>
+      <c r="H38" s="29">
+        <v>1</v>
+      </c>
+      <c r="I38" s="29">
+        <v>2</v>
+      </c>
       <c r="J38" s="29"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="K38" s="23">
+        <v>0</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="N38" s="23"/>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
@@ -2712,9 +3217,15 @@
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
+      <c r="U38" s="23">
+        <v>0</v>
+      </c>
+      <c r="V38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="13.9" customHeight="1">
       <c r="A39" s="32"/>
@@ -2727,9 +3238,15 @@
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="K39" s="23">
+        <v>1</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="N39" s="23"/>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
@@ -2737,34 +3254,70 @@
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
       <c r="T39" s="29"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
+      <c r="U39" s="23">
+        <v>1</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="15.75">
-      <c r="A40" s="32"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="32">
+        <v>19</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>185</v>
+      </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="F40" s="29">
+        <v>2</v>
+      </c>
+      <c r="G40" s="29">
+        <v>6</v>
+      </c>
+      <c r="H40" s="29">
+        <v>1</v>
+      </c>
+      <c r="I40" s="29">
+        <v>2</v>
+      </c>
       <c r="J40" s="29"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="28"/>
       <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="28"/>
+      <c r="O40" s="26">
+        <v>0</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>197</v>
+      </c>
       <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
+      <c r="S40" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
       <c r="A41" s="33"/>
@@ -2787,24 +3340,50 @@
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
       <c r="T41" s="29"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
+      <c r="U41" s="23">
+        <v>1</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="32">
+        <v>20</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="F42" s="29">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29">
+        <v>7</v>
+      </c>
+      <c r="H42" s="29">
+        <v>1</v>
+      </c>
+      <c r="I42" s="29">
+        <v>2</v>
+      </c>
       <c r="J42" s="29"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="K42" s="23">
+        <v>0</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="N42" s="23"/>
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
@@ -2812,9 +3391,15 @@
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
       <c r="T42" s="29"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
+      <c r="U42" s="23">
+        <v>0</v>
+      </c>
+      <c r="V42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:23" ht="13.9" customHeight="1">
       <c r="A43" s="32"/>
@@ -2827,9 +3412,15 @@
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="K43" s="23">
+        <v>1</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="N43" s="23"/>
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
@@ -2837,34 +3428,70 @@
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
       <c r="T43" s="29"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
+      <c r="U43" s="23">
+        <v>1</v>
+      </c>
+      <c r="V43" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W43" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="32">
+        <v>21</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>187</v>
+      </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="F44" s="29">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29">
+        <v>8</v>
+      </c>
+      <c r="H44" s="29">
+        <v>1</v>
+      </c>
+      <c r="I44" s="29">
+        <v>2</v>
+      </c>
       <c r="J44" s="29"/>
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="28"/>
       <c r="N44" s="26"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="28"/>
+      <c r="O44" s="29">
+        <v>0</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
+      <c r="S44" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44" s="23">
+        <v>0</v>
+      </c>
+      <c r="V44" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="W44" s="23" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1">
       <c r="A45" s="33"/>
@@ -2887,24 +3514,50 @@
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
+      <c r="U45" s="23">
+        <v>1</v>
+      </c>
+      <c r="V45" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="W45" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="32">
+        <v>22</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="F46" s="29">
+        <v>2</v>
+      </c>
+      <c r="G46" s="29">
+        <v>9</v>
+      </c>
+      <c r="H46" s="29">
+        <v>1</v>
+      </c>
+      <c r="I46" s="29">
+        <v>2</v>
+      </c>
       <c r="J46" s="29"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
+      <c r="K46" s="23">
+        <v>0</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N46" s="23"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
@@ -2912,9 +3565,15 @@
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
       <c r="T46" s="28"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
+      <c r="U46" s="23">
+        <v>0</v>
+      </c>
+      <c r="V46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W46" s="23" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="47" spans="1:23" ht="22.5" customHeight="1">
       <c r="A47" s="32"/>
@@ -2927,9 +3586,15 @@
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="K47" s="23">
+        <v>1</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N47" s="23"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
@@ -2937,24 +3602,50 @@
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
+      <c r="U47" s="23">
+        <v>1</v>
+      </c>
+      <c r="V47" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47" s="23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="48" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="32">
+        <v>23</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="29">
+        <v>10</v>
+      </c>
+      <c r="H48" s="29">
+        <v>1</v>
+      </c>
+      <c r="I48" s="29">
+        <v>2</v>
+      </c>
       <c r="J48" s="29"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="K48" s="23">
+        <v>0</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N48" s="23"/>
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
@@ -2962,9 +3653,15 @@
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
+      <c r="U48" s="23">
+        <v>0</v>
+      </c>
+      <c r="V48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W48" s="23" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="49" spans="1:23" ht="21.75" customHeight="1">
       <c r="A49" s="33"/>
@@ -2977,9 +3674,15 @@
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="28"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="K49" s="23">
+        <v>1</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N49" s="23"/>
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
@@ -2987,24 +3690,50 @@
       <c r="R49" s="29"/>
       <c r="S49" s="29"/>
       <c r="T49" s="29"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
+      <c r="U49" s="23">
+        <v>1</v>
+      </c>
+      <c r="V49" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W49" s="23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="50" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="32">
+        <v>24</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="F50" s="29">
+        <v>2</v>
+      </c>
+      <c r="G50" s="29">
+        <v>11</v>
+      </c>
+      <c r="H50" s="29">
+        <v>1</v>
+      </c>
+      <c r="I50" s="29">
+        <v>2</v>
+      </c>
       <c r="J50" s="29"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="K50" s="23">
+        <v>0</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N50" s="23"/>
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
@@ -3012,9 +3741,15 @@
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
       <c r="T50" s="29"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
+      <c r="U50" s="23">
+        <v>0</v>
+      </c>
+      <c r="V50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50" s="23" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1">
       <c r="A51" s="32"/>
@@ -3027,9 +3762,15 @@
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
+      <c r="K51" s="23">
+        <v>1</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N51" s="23"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
@@ -3037,34 +3778,70 @@
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
+      <c r="U51" s="23">
+        <v>1</v>
+      </c>
+      <c r="V51" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51" s="23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="32">
+        <v>25</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>218</v>
+      </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="F52" s="29">
+        <v>3</v>
+      </c>
+      <c r="G52" s="29">
+        <v>0</v>
+      </c>
+      <c r="H52" s="29">
+        <v>1</v>
+      </c>
+      <c r="I52" s="29">
+        <v>3</v>
+      </c>
       <c r="J52" s="29"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
       <c r="M52" s="28"/>
       <c r="N52" s="26"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="28"/>
+      <c r="O52" s="29">
+        <v>0</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
+      <c r="S52" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="U52" s="23">
+        <v>0</v>
+      </c>
+      <c r="V52" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="53" spans="1:23" ht="19.5" customHeight="1">
       <c r="A53" s="33"/>
@@ -3087,24 +3864,50 @@
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
+      <c r="U53" s="23">
+        <v>1</v>
+      </c>
+      <c r="V53" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="W53" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="32">
+        <v>26</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="F54" s="29">
+        <v>3</v>
+      </c>
+      <c r="G54" s="29">
+        <v>1</v>
+      </c>
+      <c r="H54" s="29">
+        <v>1</v>
+      </c>
+      <c r="I54" s="29">
+        <v>3</v>
+      </c>
       <c r="J54" s="29"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="K54" s="23">
+        <v>0</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N54" s="23"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
@@ -3112,9 +3915,15 @@
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
+      <c r="U54" s="23">
+        <v>0</v>
+      </c>
+      <c r="V54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W54" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="55" spans="1:23" ht="15.75">
       <c r="A55" s="32"/>
@@ -3127,9 +3936,15 @@
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
+      <c r="K55" s="23">
+        <v>1</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N55" s="23"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
@@ -3137,34 +3952,70 @@
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
+      <c r="U55" s="23">
+        <v>1</v>
+      </c>
+      <c r="V55" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="32">
+        <v>27</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>221</v>
+      </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="F56" s="29">
+        <v>3</v>
+      </c>
+      <c r="G56" s="29">
+        <v>2</v>
+      </c>
+      <c r="H56" s="29">
+        <v>1</v>
+      </c>
+      <c r="I56" s="29">
+        <v>3</v>
+      </c>
       <c r="J56" s="29"/>
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
       <c r="M56" s="28"/>
       <c r="N56" s="26"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="28"/>
+      <c r="O56" s="29">
+        <v>0</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q56" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
+      <c r="S56" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="T56" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="U56" s="23">
+        <v>0</v>
+      </c>
+      <c r="V56" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="W56" s="23" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="57" spans="1:23" ht="21.75" customHeight="1">
       <c r="A57" s="33"/>
@@ -3187,34 +4038,70 @@
       <c r="R57" s="29"/>
       <c r="S57" s="29"/>
       <c r="T57" s="29"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
+      <c r="U57" s="23">
+        <v>1</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="W57" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="58" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="32">
+        <v>28</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>219</v>
+      </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
+      <c r="F58" s="29">
+        <v>3</v>
+      </c>
+      <c r="G58" s="29">
+        <v>3</v>
+      </c>
+      <c r="H58" s="29">
+        <v>1</v>
+      </c>
+      <c r="I58" s="29">
+        <v>3</v>
+      </c>
+      <c r="J58" s="29">
+        <v>1</v>
+      </c>
+      <c r="K58" s="26">
+        <v>0</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>232</v>
+      </c>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
+      <c r="U58" s="23">
+        <v>0</v>
+      </c>
+      <c r="V58" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:23" ht="15.75">
       <c r="A59" s="32"/>
@@ -3237,34 +4124,70 @@
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
       <c r="T59" s="29"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
+      <c r="U59" s="23">
+        <v>1</v>
+      </c>
+      <c r="V59" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W59" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="32">
+        <v>29</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="F60" s="29">
+        <v>3</v>
+      </c>
+      <c r="G60" s="29">
+        <v>4</v>
+      </c>
+      <c r="H60" s="29">
+        <v>1</v>
+      </c>
+      <c r="I60" s="29">
+        <v>3</v>
+      </c>
       <c r="J60" s="29"/>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
       <c r="M60" s="28"/>
       <c r="N60" s="26"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="28"/>
+      <c r="O60" s="29">
+        <v>0</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q60" s="28" t="s">
+        <v>239</v>
+      </c>
       <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
+      <c r="S60" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="T60" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="U60" s="23">
+        <v>0</v>
+      </c>
+      <c r="V60" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="W60" s="23" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="61" spans="1:23" ht="24" customHeight="1">
       <c r="A61" s="33"/>
@@ -3287,24 +4210,50 @@
       <c r="R61" s="29"/>
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
+      <c r="U61" s="23">
+        <v>1</v>
+      </c>
+      <c r="V61" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="W61" s="23" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="32">
+        <v>30</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>222</v>
+      </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
+      <c r="F62" s="29">
+        <v>3</v>
+      </c>
+      <c r="G62" s="29">
+        <v>5</v>
+      </c>
+      <c r="H62" s="29">
+        <v>1</v>
+      </c>
+      <c r="I62" s="29">
+        <v>3</v>
+      </c>
       <c r="J62" s="29"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
+      <c r="K62" s="23">
+        <v>0</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="N62" s="23"/>
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
@@ -3312,9 +4261,15 @@
       <c r="R62" s="29"/>
       <c r="S62" s="29"/>
       <c r="T62" s="29"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
+      <c r="U62" s="23">
+        <v>0</v>
+      </c>
+      <c r="V62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W62" s="23" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="63" spans="1:23" ht="15.75">
       <c r="A63" s="32"/>
@@ -3327,9 +4282,15 @@
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
+      <c r="K63" s="23">
+        <v>1</v>
+      </c>
+      <c r="L63" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="N63" s="23"/>
       <c r="O63" s="29"/>
       <c r="P63" s="29"/>
@@ -3337,24 +4298,50 @@
       <c r="R63" s="29"/>
       <c r="S63" s="29"/>
       <c r="T63" s="29"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
+      <c r="U63" s="23">
+        <v>1</v>
+      </c>
+      <c r="V63" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W63" s="23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="15.75">
-      <c r="A64" s="32"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
+      <c r="A64" s="32">
+        <v>31</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
+      <c r="F64" s="29">
+        <v>3</v>
+      </c>
+      <c r="G64" s="29">
+        <v>6</v>
+      </c>
+      <c r="H64" s="29">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29">
+        <v>3</v>
+      </c>
       <c r="J64" s="29"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="23"/>
+      <c r="K64" s="23">
+        <v>0</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="N64" s="23"/>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
@@ -3362,9 +4349,15 @@
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
       <c r="T64" s="29"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
+      <c r="U64" s="23">
+        <v>0</v>
+      </c>
+      <c r="V64" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W64" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:23" ht="15.75">
       <c r="A65" s="33"/>
@@ -3377,9 +4370,15 @@
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="23"/>
+      <c r="K65" s="23">
+        <v>1</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="N65" s="23"/>
       <c r="O65" s="29"/>
       <c r="P65" s="29"/>
@@ -3387,24 +4386,50 @@
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
+      <c r="U65" s="23">
+        <v>1</v>
+      </c>
+      <c r="V65" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="W65" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:23" ht="15.75">
-      <c r="A66" s="32"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="A66" s="32">
+        <v>32</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
+      <c r="F66" s="29">
+        <v>3</v>
+      </c>
+      <c r="G66" s="29">
+        <v>7</v>
+      </c>
+      <c r="H66" s="29">
+        <v>1</v>
+      </c>
+      <c r="I66" s="29">
+        <v>3</v>
+      </c>
       <c r="J66" s="29"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="23"/>
+      <c r="K66" s="23">
+        <v>0</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="N66" s="23"/>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
@@ -3412,9 +4437,15 @@
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
       <c r="T66" s="29"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
+      <c r="U66" s="23">
+        <v>0</v>
+      </c>
+      <c r="V66" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W66" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="67" spans="1:23" ht="15.75">
       <c r="A67" s="32"/>
@@ -3427,9 +4458,15 @@
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="23"/>
+      <c r="K67" s="23">
+        <v>1</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="N67" s="23"/>
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
@@ -3437,24 +4474,50 @@
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
       <c r="T67" s="29"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
+      <c r="U67" s="23">
+        <v>1</v>
+      </c>
+      <c r="V67" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="W67" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="68" spans="1:23" ht="15.75">
-      <c r="A68" s="32"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
+      <c r="A68" s="32">
+        <v>33</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
+      <c r="F68" s="29">
+        <v>3</v>
+      </c>
+      <c r="G68" s="29">
+        <v>8</v>
+      </c>
+      <c r="H68" s="29">
+        <v>1</v>
+      </c>
+      <c r="I68" s="29">
+        <v>3</v>
+      </c>
       <c r="J68" s="29"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="23"/>
+      <c r="K68" s="23">
+        <v>0</v>
+      </c>
+      <c r="L68" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="N68" s="23"/>
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
@@ -3462,9 +4525,15 @@
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
       <c r="T68" s="29"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
+      <c r="U68" s="23">
+        <v>0</v>
+      </c>
+      <c r="V68" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W68" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1">
       <c r="A69" s="33"/>
@@ -3477,9 +4546,15 @@
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="23"/>
+      <c r="K69" s="23">
+        <v>1</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="N69" s="23"/>
       <c r="O69" s="29"/>
       <c r="P69" s="29"/>
@@ -3487,24 +4562,50 @@
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
       <c r="T69" s="29"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
+      <c r="U69" s="23">
+        <v>1</v>
+      </c>
+      <c r="V69" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="W69" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="70" spans="1:23" ht="15" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
+      <c r="A70" s="32">
+        <v>34</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>226</v>
+      </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
+      <c r="F70" s="29">
+        <v>3</v>
+      </c>
+      <c r="G70" s="29">
+        <v>9</v>
+      </c>
+      <c r="H70" s="29">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29">
+        <v>3</v>
+      </c>
       <c r="J70" s="29"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="23"/>
+      <c r="K70" s="23">
+        <v>0</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="N70" s="23"/>
       <c r="O70" s="29"/>
       <c r="P70" s="29"/>
@@ -3512,9 +4613,15 @@
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
       <c r="T70" s="29"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
+      <c r="U70" s="23">
+        <v>0</v>
+      </c>
+      <c r="V70" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W70" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="71" spans="1:23" ht="15" customHeight="1">
       <c r="A71" s="32"/>
@@ -3527,9 +4634,15 @@
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="23"/>
+      <c r="K71" s="23">
+        <v>1</v>
+      </c>
+      <c r="L71" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="N71" s="23"/>
       <c r="O71" s="29"/>
       <c r="P71" s="29"/>
@@ -3537,34 +4650,76 @@
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
       <c r="T71" s="29"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
+      <c r="U71" s="23">
+        <v>1</v>
+      </c>
+      <c r="V71" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="W71" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="72" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
+      <c r="A72" s="34">
+        <v>35</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="29">
+        <v>80</v>
+      </c>
+      <c r="F72" s="29">
+        <v>4</v>
+      </c>
+      <c r="G72" s="29">
+        <v>0</v>
+      </c>
+      <c r="H72" s="29">
+        <v>1</v>
+      </c>
+      <c r="I72" s="29">
+        <v>4</v>
+      </c>
       <c r="J72" s="29"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
+      <c r="K72" s="23">
+        <v>0</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="N72" s="23"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="28"/>
+      <c r="O72" s="29">
+        <v>0</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q72" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
+      <c r="U72" s="23">
+        <v>0</v>
+      </c>
+      <c r="V72" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W72" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="73" spans="1:23" ht="30" customHeight="1">
       <c r="A73" s="34"/>
@@ -3577,19 +4732,33 @@
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
+      <c r="K73" s="23">
+        <v>1</v>
+      </c>
+      <c r="L73" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N73" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O73" s="29"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
       <c r="T73" s="29"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
+      <c r="U73" s="23">
+        <v>1</v>
+      </c>
+      <c r="V73" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W73" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1">
       <c r="A74" s="34"/>
@@ -3602,19 +4771,37 @@
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
+      <c r="K74" s="23">
+        <v>3</v>
+      </c>
+      <c r="L74" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="N74" s="23"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="28"/>
+      <c r="O74" s="29">
+        <v>3</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q74" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
       <c r="T74" s="29"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
+      <c r="U74" s="23">
+        <v>2</v>
+      </c>
+      <c r="V74" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="W74" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="75" spans="1:23" ht="37.5" customHeight="1">
       <c r="A75" s="34"/>
@@ -3627,44 +4814,94 @@
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
+      <c r="K75" s="23">
+        <v>2</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O75" s="29"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
       <c r="T75" s="29"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
+      <c r="U75" s="23">
+        <v>3</v>
+      </c>
+      <c r="V75" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="W75" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="76" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
+      <c r="A76" s="34">
+        <v>36</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="29">
+        <v>80</v>
+      </c>
+      <c r="F76" s="29">
+        <v>5</v>
+      </c>
+      <c r="G76" s="29">
+        <v>0</v>
+      </c>
+      <c r="H76" s="29">
+        <v>1</v>
+      </c>
+      <c r="I76" s="29">
+        <v>4</v>
+      </c>
       <c r="J76" s="29"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
+      <c r="K76" s="23">
+        <v>0</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="N76" s="23"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="28"/>
+      <c r="O76" s="29">
+        <v>0</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
       <c r="T76" s="29"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
+      <c r="U76" s="23">
+        <v>0</v>
+      </c>
+      <c r="V76" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W76" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="77" spans="1:23" ht="33.75" customHeight="1">
       <c r="A77" s="34"/>
@@ -3677,19 +4914,33 @@
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
+      <c r="K77" s="23">
+        <v>1</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O77" s="29"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
       <c r="T77" s="29"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
+      <c r="U77" s="23">
+        <v>1</v>
+      </c>
+      <c r="V77" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W77" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1">
       <c r="A78" s="34"/>
@@ -3702,19 +4953,37 @@
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
+      <c r="K78" s="23">
+        <v>3</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="N78" s="23"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="28"/>
+      <c r="O78" s="29">
+        <v>3</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q78" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
       <c r="T78" s="29"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
+      <c r="U78" s="23">
+        <v>2</v>
+      </c>
+      <c r="V78" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="W78" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="79" spans="1:23" ht="32.25" customHeight="1">
       <c r="A79" s="34"/>
@@ -3727,44 +4996,94 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="K79" s="23">
+        <v>2</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
       <c r="T79" s="29"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="23"/>
-      <c r="W79" s="23"/>
+      <c r="U79" s="23">
+        <v>3</v>
+      </c>
+      <c r="V79" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="W79" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="80" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="A80" s="34">
+        <v>37</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="29">
+        <v>80</v>
+      </c>
+      <c r="F80" s="29">
+        <v>6</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+      <c r="H80" s="29">
+        <v>1</v>
+      </c>
+      <c r="I80" s="29">
+        <v>4</v>
+      </c>
       <c r="J80" s="29"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
+      <c r="K80" s="23">
+        <v>0</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="N80" s="23"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="28"/>
+      <c r="O80" s="29">
+        <v>0</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q80" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
       <c r="T80" s="29"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
+      <c r="U80" s="23">
+        <v>0</v>
+      </c>
+      <c r="V80" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W80" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="81" spans="1:23" ht="36" customHeight="1">
       <c r="A81" s="34"/>
@@ -3777,19 +5096,33 @@
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
+      <c r="K81" s="23">
+        <v>1</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O81" s="29"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
       <c r="T81" s="29"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
+      <c r="U81" s="23">
+        <v>1</v>
+      </c>
+      <c r="V81" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W81" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1">
       <c r="A82" s="34"/>
@@ -3802,19 +5135,37 @@
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
+      <c r="K82" s="23">
+        <v>3</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="N82" s="23"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="28"/>
+      <c r="O82" s="29">
+        <v>3</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
       <c r="T82" s="29"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
+      <c r="U82" s="23">
+        <v>2</v>
+      </c>
+      <c r="V82" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="W82" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="83" spans="1:23" ht="43.5" customHeight="1">
       <c r="A83" s="34"/>
@@ -3827,19 +5178,33 @@
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
+      <c r="K83" s="23">
+        <v>2</v>
+      </c>
+      <c r="L83" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M83" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N83" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="O83" s="29"/>
       <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="29"/>
       <c r="T83" s="29"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
+      <c r="U83" s="23">
+        <v>3</v>
+      </c>
+      <c r="V83" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="W83" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="667">
@@ -4534,13 +5899,13 @@
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4555,7 +5920,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -4570,7 +5935,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4594,13 +5959,13 @@
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -4615,7 +5980,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4630,7 +5995,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -4640,13 +6005,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4654,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4662,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +6092,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="40" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4735,7 +6100,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="40" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4743,7 +6108,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="40" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4751,7 +6116,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="40" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4759,7 +6124,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="40" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4767,7 +6132,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="40" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4775,7 +6140,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="40" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4783,7 +6148,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4791,7 +6156,7 @@
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4811,7 +6176,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -4822,7 +6187,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="40" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4830,7 +6195,7 @@
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1">
       <c r="A39" s="39" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4838,7 +6203,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="40" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4846,7 +6211,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="40" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -4854,7 +6219,7 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="40" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -4862,7 +6227,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="40" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -4870,7 +6235,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="40" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4878,7 +6243,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="40" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4886,7 +6251,7 @@
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
       <c r="A53" s="39" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4894,7 +6259,7 @@
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
       <c r="A55" s="39" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4902,7 +6267,7 @@
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1">
       <c r="A57" s="39" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4910,7 +6275,7 @@
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
       <c r="A59" s="39" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4918,10 +6283,10 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="40" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4929,7 +6294,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="40" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4937,7 +6302,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="40" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4945,21 +6310,21 @@
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
       <c r="A67" s="39" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="39"/>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="A69" s="39" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4967,7 +6332,7 @@
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="A71" s="39" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4975,7 +6340,7 @@
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="A73" s="39" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4983,7 +6348,7 @@
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="A75" s="39" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4997,7 +6362,7 @@
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1">
       <c r="A79" s="39" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5011,7 +6376,7 @@
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1">
       <c r="A83" s="39" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -5025,7 +6390,7 @@
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1">
       <c r="A87" s="39" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -5039,7 +6404,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="40" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -5047,7 +6412,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:1">

--- a/config.xlsx
+++ b/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="258">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -728,9 +728,6 @@
     <t>falling_roof_part1</t>
   </si>
   <si>
-    <t>falling_roof_par3</t>
-  </si>
-  <si>
     <t>falling_roof_part2</t>
   </si>
   <si>
@@ -815,6 +812,26 @@
   </si>
   <si>
     <t>Wireless_torches_result</t>
+  </si>
+  <si>
+    <t>falling_roof_part3</t>
+  </si>
+  <si>
+    <t>unpassed</t>
+  </si>
+  <si>
+    <t>Имитировать
+неуспешное прохождение</t>
+  </si>
+  <si>
+    <t>pulled</t>
+  </si>
+  <si>
+    <t>Имитировать
+отпускание</t>
+  </si>
+  <si>
+    <t>not_pushed</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1138,16 +1155,31 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1162,26 +1194,23 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1549,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,18 +1603,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -1602,23 +1631,23 @@
     </row>
     <row r="2" spans="1:23" ht="15.75">
       <c r="A2" s="18"/>
-      <c r="B2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
@@ -1627,11 +1656,11 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
     </row>
     <row r="3" spans="1:23" ht="63">
       <c r="A3" s="20" t="s">
@@ -1705,46 +1734,46 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75">
-      <c r="A4" s="34">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>1</v>
-      </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="23"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
       <c r="U4" s="23">
         <v>0</v>
       </c>
@@ -1756,32 +1785,32 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="23">
         <v>1</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>120</v>
       </c>
       <c r="N5" s="23"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
       <c r="U5" s="23">
         <v>1</v>
       </c>
@@ -1793,30 +1822,30 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75">
-      <c r="A6" s="34">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
-        <v>1</v>
-      </c>
-      <c r="G6" s="29">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="I6" s="29">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31"/>
       <c r="K6" s="23">
         <v>0</v>
       </c>
@@ -1827,12 +1856,12 @@
         <v>123</v>
       </c>
       <c r="N6" s="23"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
       <c r="U6" s="23">
         <v>0</v>
       </c>
@@ -1844,16 +1873,16 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="23">
         <v>1</v>
       </c>
@@ -1864,12 +1893,12 @@
         <v>122</v>
       </c>
       <c r="N7" s="23"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="23">
         <v>1</v>
       </c>
@@ -1881,49 +1910,49 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
-        <v>1</v>
-      </c>
-      <c r="G8" s="29">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
         <v>2</v>
       </c>
-      <c r="H8" s="29">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="29" t="s">
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="41">
+        <v>0</v>
+      </c>
+      <c r="P8" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>159</v>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="U8" s="23">
         <v>0</v>
@@ -1936,26 +1965,36 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="41">
+        <v>1</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>257</v>
+      </c>
       <c r="U9" s="23">
         <v>1</v>
       </c>
@@ -1967,48 +2006,48 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="30">
         <v>4</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
         <v>3</v>
       </c>
-      <c r="H10" s="29">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="30">
-        <v>0</v>
-      </c>
-      <c r="P10" s="29" t="s">
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="35">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29" t="s">
+      <c r="R10" s="31"/>
+      <c r="S10" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="31" t="s">
         <v>159</v>
       </c>
       <c r="U10" s="23">
@@ -2022,26 +2061,26 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
       <c r="U11" s="23">
         <v>1</v>
       </c>
@@ -2053,48 +2092,48 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="30">
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="C12" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
         <v>4</v>
       </c>
-      <c r="H12" s="29">
-        <v>1</v>
-      </c>
-      <c r="I12" s="29">
-        <v>1</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="30">
-        <v>0</v>
-      </c>
-      <c r="P12" s="29" t="s">
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="43">
+        <v>0</v>
+      </c>
+      <c r="P12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="44" t="s">
         <v>43</v>
       </c>
       <c r="U12" s="23">
@@ -2108,26 +2147,36 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="43">
+        <v>1</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>42</v>
+      </c>
       <c r="U13" s="23">
         <v>1</v>
       </c>
@@ -2139,30 +2188,30 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75">
-      <c r="A14" s="34">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29">
-        <v>1</v>
-      </c>
-      <c r="G14" s="29">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
         <v>5</v>
       </c>
-      <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29">
-        <v>1</v>
-      </c>
-      <c r="J14" s="29"/>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31"/>
       <c r="K14" s="23">
         <v>0</v>
       </c>
@@ -2173,12 +2222,12 @@
         <v>149</v>
       </c>
       <c r="N14" s="23"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
       <c r="U14" s="23">
         <v>0</v>
       </c>
@@ -2190,16 +2239,16 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="23">
         <v>1</v>
       </c>
@@ -2210,12 +2259,12 @@
         <v>150</v>
       </c>
       <c r="N15" s="23"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
       <c r="U15" s="23">
         <v>1</v>
       </c>
@@ -2227,48 +2276,48 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75">
-      <c r="A16" s="32">
+      <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33">
         <v>6</v>
       </c>
-      <c r="H16" s="29">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="30">
-        <v>0</v>
-      </c>
-      <c r="P16" s="29" t="s">
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="35">
+        <v>0</v>
+      </c>
+      <c r="P16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29" t="s">
+      <c r="R16" s="31"/>
+      <c r="S16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="T16" s="31" t="s">
         <v>43</v>
       </c>
       <c r="U16" s="23">
@@ -2282,26 +2331,26 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="21" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
       <c r="U17" s="23">
         <v>1</v>
       </c>
@@ -2313,30 +2362,30 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75">
-      <c r="A18" s="34">
+      <c r="A18" s="30">
         <v>8</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29">
-        <v>1</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
         <v>7</v>
       </c>
-      <c r="H18" s="29">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="29"/>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31"/>
       <c r="K18" s="23">
         <v>0</v>
       </c>
@@ -2347,12 +2396,12 @@
         <v>122</v>
       </c>
       <c r="N18" s="23"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
       <c r="U18" s="23">
         <v>0</v>
       </c>
@@ -2364,16 +2413,16 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="23">
         <v>1</v>
       </c>
@@ -2384,12 +2433,12 @@
         <v>123</v>
       </c>
       <c r="N19" s="23"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="23">
         <v>1</v>
       </c>
@@ -2401,30 +2450,30 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="37">
         <v>9</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33">
         <v>8</v>
       </c>
-      <c r="H20" s="29">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1</v>
-      </c>
-      <c r="J20" s="26"/>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33"/>
       <c r="K20" s="23">
         <v>0</v>
       </c>
@@ -2435,12 +2484,12 @@
         <v>153</v>
       </c>
       <c r="N20" s="23"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
       <c r="U20" s="23">
         <v>0</v>
       </c>
@@ -2452,16 +2501,16 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="23">
         <v>1</v>
       </c>
@@ -2472,12 +2521,12 @@
         <v>154</v>
       </c>
       <c r="N21" s="23"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
       <c r="U21" s="23">
         <v>1</v>
       </c>
@@ -2489,30 +2538,30 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="37">
         <v>10</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29">
-        <v>1</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
         <v>9</v>
       </c>
-      <c r="H22" s="29">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29">
-        <v>1</v>
-      </c>
-      <c r="J22" s="29"/>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1</v>
+      </c>
+      <c r="J22" s="31"/>
       <c r="K22" s="23">
         <v>0</v>
       </c>
@@ -2523,12 +2572,12 @@
         <v>149</v>
       </c>
       <c r="N22" s="23"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
       <c r="U22" s="23">
         <v>0</v>
       </c>
@@ -2540,16 +2589,16 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="23">
         <v>1</v>
       </c>
@@ -2560,12 +2609,12 @@
         <v>150</v>
       </c>
       <c r="N23" s="23"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
       <c r="U23" s="23">
         <v>1</v>
       </c>
@@ -2577,118 +2626,118 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1">
-      <c r="A24" s="34">
+      <c r="A24" s="30">
         <v>11</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33">
         <v>10</v>
       </c>
-      <c r="H24" s="29">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29"/>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1</v>
+      </c>
+      <c r="J24" s="31"/>
       <c r="K24" s="25">
         <v>0</v>
       </c>
       <c r="L24" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="23">
+        <v>0</v>
+      </c>
+      <c r="V24" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="W24" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M25" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="23">
+        <v>1</v>
+      </c>
+      <c r="V25" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="W25" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="23">
-        <v>0</v>
-      </c>
-      <c r="V24" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="W24" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75">
-      <c r="A25" s="34"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="23">
-        <v>1</v>
-      </c>
-      <c r="V25" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="W25" s="25" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="26" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="37">
         <v>12</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29">
-        <v>1</v>
-      </c>
-      <c r="G26" s="29">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
         <v>11</v>
       </c>
-      <c r="H26" s="29">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29">
-        <v>1</v>
-      </c>
-      <c r="J26" s="29"/>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31">
+        <v>1</v>
+      </c>
+      <c r="J26" s="31"/>
       <c r="K26" s="23">
         <v>0</v>
       </c>
@@ -2699,12 +2748,12 @@
         <v>122</v>
       </c>
       <c r="N26" s="23"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
       <c r="U26" s="23">
         <v>0</v>
       </c>
@@ -2716,16 +2765,16 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75">
-      <c r="A27" s="32"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="23">
         <v>1</v>
       </c>
@@ -2736,12 +2785,12 @@
         <v>123</v>
       </c>
       <c r="N27" s="23"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
       <c r="U27" s="23">
         <v>1</v>
       </c>
@@ -2753,48 +2802,48 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="37">
         <v>13</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31">
         <v>2</v>
       </c>
-      <c r="G28" s="29">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29">
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31">
         <v>2</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="29">
-        <v>0</v>
-      </c>
-      <c r="P28" s="29" t="s">
+      <c r="J28" s="31"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="31">
+        <v>0</v>
+      </c>
+      <c r="P28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="28" t="s">
+      <c r="Q28" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29" t="s">
+      <c r="R28" s="31"/>
+      <c r="S28" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="31" t="s">
         <v>200</v>
       </c>
       <c r="U28" s="23">
@@ -2808,26 +2857,26 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
       <c r="U29" s="23">
         <v>1</v>
       </c>
@@ -2839,48 +2888,48 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1">
-      <c r="A30" s="32">
+      <c r="A30" s="37">
         <v>14</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31">
         <v>2</v>
       </c>
-      <c r="G30" s="29">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29">
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="31">
         <v>2</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="29">
-        <v>0</v>
-      </c>
-      <c r="P30" s="29" t="s">
+      <c r="J30" s="31"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="31">
+        <v>0</v>
+      </c>
+      <c r="P30" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="28" t="s">
+      <c r="Q30" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29" t="s">
+      <c r="R30" s="31"/>
+      <c r="S30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="29" t="s">
+      <c r="T30" s="31" t="s">
         <v>43</v>
       </c>
       <c r="U30" s="23">
@@ -2894,26 +2943,26 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="23">
         <v>1</v>
       </c>
@@ -2925,30 +2974,30 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75">
-      <c r="A32" s="32">
+      <c r="A32" s="37">
         <v>15</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31">
         <v>2</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="31">
         <v>2</v>
       </c>
-      <c r="H32" s="29">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29">
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
         <v>2</v>
       </c>
-      <c r="J32" s="29"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="23">
         <v>0</v>
       </c>
@@ -2959,12 +3008,12 @@
         <v>149</v>
       </c>
       <c r="N32" s="23"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
       <c r="U32" s="23">
         <v>0</v>
       </c>
@@ -2976,16 +3025,16 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75">
-      <c r="A33" s="33"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="23">
         <v>1</v>
       </c>
@@ -2996,12 +3045,12 @@
         <v>150</v>
       </c>
       <c r="N33" s="23"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
       <c r="U33" s="23">
         <v>1</v>
       </c>
@@ -3013,30 +3062,30 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.75">
-      <c r="A34" s="32">
+      <c r="A34" s="37">
         <v>16</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31">
         <v>2</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="31">
         <v>3</v>
       </c>
-      <c r="H34" s="29">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29">
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="31">
         <v>2</v>
       </c>
-      <c r="J34" s="29"/>
+      <c r="J34" s="31"/>
       <c r="K34" s="23">
         <v>0</v>
       </c>
@@ -3047,12 +3096,12 @@
         <v>149</v>
       </c>
       <c r="N34" s="23"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
       <c r="U34" s="23">
         <v>0</v>
       </c>
@@ -3064,16 +3113,16 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75">
-      <c r="A35" s="32"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="23">
         <v>1</v>
       </c>
@@ -3084,12 +3133,12 @@
         <v>150</v>
       </c>
       <c r="N35" s="23"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
       <c r="U35" s="23">
         <v>1</v>
       </c>
@@ -3101,40 +3150,40 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75">
-      <c r="A36" s="32">
+      <c r="A36" s="37">
         <v>17</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31">
         <v>2</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="31">
         <v>4</v>
       </c>
-      <c r="H36" s="29">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29">
+      <c r="H36" s="31">
+        <v>1</v>
+      </c>
+      <c r="I36" s="31">
         <v>2</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
       <c r="U36" s="23">
         <v>0</v>
       </c>
@@ -3146,26 +3195,26 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
       <c r="U37" s="23">
         <v>1</v>
       </c>
@@ -3177,30 +3226,30 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75">
-      <c r="A38" s="32">
+      <c r="A38" s="37">
         <v>18</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31">
         <v>2</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="31">
         <v>5</v>
       </c>
-      <c r="H38" s="29">
-        <v>1</v>
-      </c>
-      <c r="I38" s="29">
+      <c r="H38" s="31">
+        <v>1</v>
+      </c>
+      <c r="I38" s="31">
         <v>2</v>
       </c>
-      <c r="J38" s="29"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="23">
         <v>0</v>
       </c>
@@ -3211,12 +3260,12 @@
         <v>122</v>
       </c>
       <c r="N38" s="23"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
       <c r="U38" s="23">
         <v>0</v>
       </c>
@@ -3228,16 +3277,16 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="23">
         <v>1</v>
       </c>
@@ -3248,12 +3297,12 @@
         <v>123</v>
       </c>
       <c r="N39" s="23"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
       <c r="U39" s="23">
         <v>1</v>
       </c>
@@ -3265,48 +3314,48 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75">
-      <c r="A40" s="32">
+      <c r="A40" s="37">
         <v>19</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31">
         <v>2</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="31">
         <v>6</v>
       </c>
-      <c r="H40" s="29">
-        <v>1</v>
-      </c>
-      <c r="I40" s="29">
+      <c r="H40" s="31">
+        <v>1</v>
+      </c>
+      <c r="I40" s="31">
         <v>2</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26" t="s">
+      <c r="J40" s="31"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33">
+        <v>0</v>
+      </c>
+      <c r="P40" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="Q40" s="28" t="s">
+      <c r="Q40" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29" t="s">
+      <c r="R40" s="31"/>
+      <c r="S40" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="T40" s="29" t="s">
+      <c r="T40" s="31" t="s">
         <v>37</v>
       </c>
       <c r="U40" s="23">
@@ -3320,26 +3369,26 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
       <c r="U41" s="23">
         <v>1</v>
       </c>
@@ -3351,30 +3400,30 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="37">
         <v>20</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31">
         <v>2</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="31">
         <v>7</v>
       </c>
-      <c r="H42" s="29">
-        <v>1</v>
-      </c>
-      <c r="I42" s="29">
+      <c r="H42" s="31">
+        <v>1</v>
+      </c>
+      <c r="I42" s="31">
         <v>2</v>
       </c>
-      <c r="J42" s="29"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="23">
         <v>0</v>
       </c>
@@ -3385,12 +3434,12 @@
         <v>122</v>
       </c>
       <c r="N42" s="23"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
       <c r="U42" s="23">
         <v>0</v>
       </c>
@@ -3402,16 +3451,16 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="23">
         <v>1</v>
       </c>
@@ -3422,12 +3471,12 @@
         <v>123</v>
       </c>
       <c r="N43" s="23"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
       <c r="U43" s="23">
         <v>1</v>
       </c>
@@ -3439,48 +3488,48 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="37">
         <v>21</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31">
         <v>2</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="31">
         <v>8</v>
       </c>
-      <c r="H44" s="29">
-        <v>1</v>
-      </c>
-      <c r="I44" s="29">
+      <c r="H44" s="31">
+        <v>1</v>
+      </c>
+      <c r="I44" s="31">
         <v>2</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="29">
-        <v>0</v>
-      </c>
-      <c r="P44" s="29" t="s">
+      <c r="J44" s="31"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="31">
+        <v>0</v>
+      </c>
+      <c r="P44" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="Q44" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29" t="s">
+      <c r="Q44" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="T44" s="29" t="s">
+      <c r="T44" s="31" t="s">
         <v>205</v>
       </c>
       <c r="U44" s="23">
@@ -3494,26 +3543,26 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
       <c r="U45" s="23">
         <v>1</v>
       </c>
@@ -3525,30 +3574,30 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="37">
         <v>22</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31">
         <v>2</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="31">
         <v>9</v>
       </c>
-      <c r="H46" s="29">
-        <v>1</v>
-      </c>
-      <c r="I46" s="29">
+      <c r="H46" s="31">
+        <v>1</v>
+      </c>
+      <c r="I46" s="31">
         <v>2</v>
       </c>
-      <c r="J46" s="29"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="23">
         <v>0</v>
       </c>
@@ -3559,12 +3608,12 @@
         <v>149</v>
       </c>
       <c r="N46" s="23"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
       <c r="U46" s="23">
         <v>0</v>
       </c>
@@ -3576,16 +3625,16 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="23">
         <v>1</v>
       </c>
@@ -3596,12 +3645,12 @@
         <v>150</v>
       </c>
       <c r="N47" s="23"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
       <c r="U47" s="23">
         <v>1</v>
       </c>
@@ -3613,30 +3662,30 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="37">
         <v>23</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31">
         <v>2</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="31">
         <v>10</v>
       </c>
-      <c r="H48" s="29">
-        <v>1</v>
-      </c>
-      <c r="I48" s="29">
+      <c r="H48" s="31">
+        <v>1</v>
+      </c>
+      <c r="I48" s="31">
         <v>2</v>
       </c>
-      <c r="J48" s="29"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="23">
         <v>0</v>
       </c>
@@ -3647,12 +3696,12 @@
         <v>149</v>
       </c>
       <c r="N48" s="23"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
       <c r="U48" s="23">
         <v>0</v>
       </c>
@@ -3664,16 +3713,16 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="28"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="23">
         <v>1</v>
       </c>
@@ -3684,12 +3733,12 @@
         <v>150</v>
       </c>
       <c r="N49" s="23"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
       <c r="U49" s="23">
         <v>1</v>
       </c>
@@ -3701,30 +3750,30 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="37">
         <v>24</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31">
         <v>2</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="31">
         <v>11</v>
       </c>
-      <c r="H50" s="29">
-        <v>1</v>
-      </c>
-      <c r="I50" s="29">
+      <c r="H50" s="31">
+        <v>1</v>
+      </c>
+      <c r="I50" s="31">
         <v>2</v>
       </c>
-      <c r="J50" s="29"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="23">
         <v>0</v>
       </c>
@@ -3735,12 +3784,12 @@
         <v>149</v>
       </c>
       <c r="N50" s="23"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
       <c r="U50" s="23">
         <v>0</v>
       </c>
@@ -3752,16 +3801,16 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="23">
         <v>1</v>
       </c>
@@ -3772,12 +3821,12 @@
         <v>150</v>
       </c>
       <c r="N51" s="23"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
       <c r="U51" s="23">
         <v>1</v>
       </c>
@@ -3789,48 +3838,48 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="37">
         <v>25</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31">
         <v>3</v>
       </c>
-      <c r="G52" s="29">
-        <v>0</v>
-      </c>
-      <c r="H52" s="29">
-        <v>1</v>
-      </c>
-      <c r="I52" s="29">
+      <c r="G52" s="31">
+        <v>0</v>
+      </c>
+      <c r="H52" s="31">
+        <v>1</v>
+      </c>
+      <c r="I52" s="31">
         <v>3</v>
       </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="29">
-        <v>0</v>
-      </c>
-      <c r="P52" s="29" t="s">
+      <c r="J52" s="31"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="31">
+        <v>0</v>
+      </c>
+      <c r="P52" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="Q52" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29" t="s">
+      <c r="Q52" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="T52" s="29" t="s">
+      <c r="T52" s="31" t="s">
         <v>205</v>
       </c>
       <c r="U52" s="23">
@@ -3844,26 +3893,26 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A53" s="33"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
       <c r="U53" s="23">
         <v>1</v>
       </c>
@@ -3875,30 +3924,30 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="37">
         <v>26</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31">
         <v>3</v>
       </c>
-      <c r="G54" s="29">
-        <v>1</v>
-      </c>
-      <c r="H54" s="29">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29">
+      <c r="G54" s="31">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31">
+        <v>1</v>
+      </c>
+      <c r="I54" s="31">
         <v>3</v>
       </c>
-      <c r="J54" s="29"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="23">
         <v>0</v>
       </c>
@@ -3909,12 +3958,12 @@
         <v>149</v>
       </c>
       <c r="N54" s="23"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
       <c r="U54" s="23">
         <v>0</v>
       </c>
@@ -3926,16 +3975,16 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75">
-      <c r="A55" s="32"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="23">
         <v>1</v>
       </c>
@@ -3946,12 +3995,12 @@
         <v>150</v>
       </c>
       <c r="N55" s="23"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
       <c r="U55" s="23">
         <v>1</v>
       </c>
@@ -3963,48 +4012,48 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="37">
         <v>27</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31">
         <v>3</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="31">
         <v>2</v>
       </c>
-      <c r="H56" s="29">
-        <v>1</v>
-      </c>
-      <c r="I56" s="29">
+      <c r="H56" s="31">
+        <v>1</v>
+      </c>
+      <c r="I56" s="31">
         <v>3</v>
       </c>
-      <c r="J56" s="29"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="29">
-        <v>0</v>
-      </c>
-      <c r="P56" s="29" t="s">
+      <c r="J56" s="31"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="31">
+        <v>0</v>
+      </c>
+      <c r="P56" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="Q56" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29" t="s">
+      <c r="Q56" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="T56" s="29" t="s">
+      <c r="T56" s="31" t="s">
         <v>205</v>
       </c>
       <c r="U56" s="23">
@@ -4018,26 +4067,26 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
       <c r="U57" s="23">
         <v>1</v>
       </c>
@@ -4049,50 +4098,50 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="37">
         <v>28</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31">
         <v>3</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="31">
         <v>3</v>
       </c>
-      <c r="H58" s="29">
-        <v>1</v>
-      </c>
-      <c r="I58" s="29">
+      <c r="H58" s="31">
+        <v>1</v>
+      </c>
+      <c r="I58" s="31">
         <v>3</v>
       </c>
-      <c r="J58" s="29">
-        <v>1</v>
-      </c>
-      <c r="K58" s="26">
-        <v>0</v>
-      </c>
-      <c r="L58" s="26" t="s">
+      <c r="J58" s="31">
+        <v>1</v>
+      </c>
+      <c r="K58" s="33">
+        <v>0</v>
+      </c>
+      <c r="L58" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M58" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="M58" s="29" t="s">
+      <c r="N58" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="N58" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
       <c r="U58" s="23">
         <v>0</v>
       </c>
@@ -4104,26 +4153,26 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75">
-      <c r="A59" s="32"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
       <c r="U59" s="23">
         <v>1</v>
       </c>
@@ -4135,48 +4184,48 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="37">
         <v>29</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31">
         <v>3</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="31">
         <v>4</v>
       </c>
-      <c r="H60" s="29">
-        <v>1</v>
-      </c>
-      <c r="I60" s="29">
+      <c r="H60" s="31">
+        <v>1</v>
+      </c>
+      <c r="I60" s="31">
         <v>3</v>
       </c>
-      <c r="J60" s="29"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="29">
-        <v>0</v>
-      </c>
-      <c r="P60" s="29" t="s">
+      <c r="J60" s="31"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="31">
+        <v>0</v>
+      </c>
+      <c r="P60" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q60" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="Q60" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29" t="s">
+      <c r="R60" s="31"/>
+      <c r="S60" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="T60" s="29" t="s">
+      <c r="T60" s="31" t="s">
         <v>200</v>
       </c>
       <c r="U60" s="23">
@@ -4190,26 +4239,26 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="24" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
       <c r="U61" s="23">
         <v>1</v>
       </c>
@@ -4221,30 +4270,30 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="37">
         <v>30</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29">
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31">
         <v>3</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="31">
         <v>5</v>
       </c>
-      <c r="H62" s="29">
-        <v>1</v>
-      </c>
-      <c r="I62" s="29">
+      <c r="H62" s="31">
+        <v>1</v>
+      </c>
+      <c r="I62" s="31">
         <v>3</v>
       </c>
-      <c r="J62" s="29"/>
+      <c r="J62" s="31"/>
       <c r="K62" s="23">
         <v>0</v>
       </c>
@@ -4255,12 +4304,12 @@
         <v>149</v>
       </c>
       <c r="N62" s="23"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
       <c r="U62" s="23">
         <v>0</v>
       </c>
@@ -4272,16 +4321,16 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75">
-      <c r="A63" s="32"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="23">
         <v>1</v>
       </c>
@@ -4292,12 +4341,12 @@
         <v>150</v>
       </c>
       <c r="N63" s="23"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
       <c r="U63" s="23">
         <v>1</v>
       </c>
@@ -4309,30 +4358,30 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75">
-      <c r="A64" s="32">
+      <c r="A64" s="37">
         <v>31</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31">
         <v>3</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="31">
         <v>6</v>
       </c>
-      <c r="H64" s="29">
-        <v>1</v>
-      </c>
-      <c r="I64" s="29">
+      <c r="H64" s="31">
+        <v>1</v>
+      </c>
+      <c r="I64" s="31">
         <v>3</v>
       </c>
-      <c r="J64" s="29"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="23">
         <v>0</v>
       </c>
@@ -4343,12 +4392,12 @@
         <v>120</v>
       </c>
       <c r="N64" s="23"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
       <c r="U64" s="23">
         <v>0</v>
       </c>
@@ -4360,16 +4409,16 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75">
-      <c r="A65" s="33"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
       <c r="K65" s="23">
         <v>1</v>
       </c>
@@ -4380,12 +4429,12 @@
         <v>121</v>
       </c>
       <c r="N65" s="23"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
       <c r="U65" s="23">
         <v>1</v>
       </c>
@@ -4397,30 +4446,30 @@
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75">
-      <c r="A66" s="32">
+      <c r="A66" s="37">
         <v>32</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29">
+      <c r="C66" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31">
         <v>3</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="31">
         <v>7</v>
       </c>
-      <c r="H66" s="29">
-        <v>1</v>
-      </c>
-      <c r="I66" s="29">
+      <c r="H66" s="31">
+        <v>1</v>
+      </c>
+      <c r="I66" s="31">
         <v>3</v>
       </c>
-      <c r="J66" s="29"/>
+      <c r="J66" s="31"/>
       <c r="K66" s="23">
         <v>0</v>
       </c>
@@ -4431,12 +4480,12 @@
         <v>120</v>
       </c>
       <c r="N66" s="23"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
       <c r="U66" s="23">
         <v>0</v>
       </c>
@@ -4448,16 +4497,16 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.75">
-      <c r="A67" s="32"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="23">
         <v>1</v>
       </c>
@@ -4468,12 +4517,12 @@
         <v>121</v>
       </c>
       <c r="N67" s="23"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
       <c r="U67" s="23">
         <v>1</v>
       </c>
@@ -4485,30 +4534,30 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15.75">
-      <c r="A68" s="32">
+      <c r="A68" s="37">
         <v>33</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29">
+      <c r="C68" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31">
         <v>3</v>
       </c>
-      <c r="G68" s="29">
+      <c r="G68" s="31">
         <v>8</v>
       </c>
-      <c r="H68" s="29">
-        <v>1</v>
-      </c>
-      <c r="I68" s="29">
+      <c r="H68" s="31">
+        <v>1</v>
+      </c>
+      <c r="I68" s="31">
         <v>3</v>
       </c>
-      <c r="J68" s="29"/>
+      <c r="J68" s="31"/>
       <c r="K68" s="23">
         <v>0</v>
       </c>
@@ -4519,12 +4568,12 @@
         <v>120</v>
       </c>
       <c r="N68" s="23"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
       <c r="U68" s="23">
         <v>0</v>
       </c>
@@ -4536,16 +4585,16 @@
       </c>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1">
-      <c r="A69" s="33"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
       <c r="K69" s="23">
         <v>1</v>
       </c>
@@ -4556,12 +4605,12 @@
         <v>121</v>
       </c>
       <c r="N69" s="23"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
       <c r="U69" s="23">
         <v>1</v>
       </c>
@@ -4573,30 +4622,30 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="15" customHeight="1">
-      <c r="A70" s="32">
+      <c r="A70" s="37">
         <v>34</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29">
+      <c r="C70" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31">
         <v>3</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="31">
         <v>9</v>
       </c>
-      <c r="H70" s="29">
-        <v>1</v>
-      </c>
-      <c r="I70" s="29">
+      <c r="H70" s="31">
+        <v>1</v>
+      </c>
+      <c r="I70" s="31">
         <v>3</v>
       </c>
-      <c r="J70" s="29"/>
+      <c r="J70" s="31"/>
       <c r="K70" s="23">
         <v>0</v>
       </c>
@@ -4607,12 +4656,12 @@
         <v>120</v>
       </c>
       <c r="N70" s="23"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
       <c r="U70" s="23">
         <v>0</v>
       </c>
@@ -4624,16 +4673,16 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
       <c r="K71" s="23">
         <v>1</v>
       </c>
@@ -4644,12 +4693,12 @@
         <v>121</v>
       </c>
       <c r="N71" s="23"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
       <c r="U71" s="23">
         <v>1</v>
       </c>
@@ -4661,34 +4710,34 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A72" s="34">
+      <c r="A72" s="30">
         <v>35</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="29">
+      <c r="D72" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="31">
         <v>80</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="31">
         <v>4</v>
       </c>
-      <c r="G72" s="29">
-        <v>0</v>
-      </c>
-      <c r="H72" s="29">
-        <v>1</v>
-      </c>
-      <c r="I72" s="29">
+      <c r="G72" s="31">
+        <v>0</v>
+      </c>
+      <c r="H72" s="31">
+        <v>1</v>
+      </c>
+      <c r="I72" s="31">
         <v>4</v>
       </c>
-      <c r="J72" s="29"/>
+      <c r="J72" s="31"/>
       <c r="K72" s="23">
         <v>0</v>
       </c>
@@ -4696,21 +4745,21 @@
         <v>51</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N72" s="23"/>
-      <c r="O72" s="29">
-        <v>0</v>
-      </c>
-      <c r="P72" s="29" t="s">
+      <c r="O72" s="31">
+        <v>0</v>
+      </c>
+      <c r="P72" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Q72" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
+      <c r="Q72" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
       <c r="U72" s="23">
         <v>0</v>
       </c>
@@ -4722,16 +4771,16 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="30" customHeight="1">
-      <c r="A73" s="34"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
       <c r="K73" s="23">
         <v>1</v>
       </c>
@@ -4739,17 +4788,17 @@
         <v>55</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N73" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
       <c r="U73" s="23">
         <v>1</v>
       </c>
@@ -4761,16 +4810,16 @@
       </c>
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="23">
         <v>3</v>
       </c>
@@ -4778,21 +4827,21 @@
         <v>59</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N74" s="23"/>
-      <c r="O74" s="29">
+      <c r="O74" s="31">
         <v>3</v>
       </c>
-      <c r="P74" s="29" t="s">
+      <c r="P74" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q74" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
+      <c r="Q74" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
       <c r="U74" s="23">
         <v>2</v>
       </c>
@@ -4804,16 +4853,16 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="37.5" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="23">
         <v>2</v>
       </c>
@@ -4821,17 +4870,17 @@
         <v>63</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N75" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
       <c r="U75" s="23">
         <v>3</v>
       </c>
@@ -4843,34 +4892,34 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A76" s="34">
+      <c r="A76" s="30">
         <v>36</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="29">
+      <c r="D76" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="31">
         <v>80</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="31">
         <v>5</v>
       </c>
-      <c r="G76" s="29">
-        <v>0</v>
-      </c>
-      <c r="H76" s="29">
-        <v>1</v>
-      </c>
-      <c r="I76" s="29">
+      <c r="G76" s="31">
+        <v>0</v>
+      </c>
+      <c r="H76" s="31">
+        <v>1</v>
+      </c>
+      <c r="I76" s="31">
         <v>4</v>
       </c>
-      <c r="J76" s="29"/>
+      <c r="J76" s="31"/>
       <c r="K76" s="23">
         <v>0</v>
       </c>
@@ -4878,21 +4927,21 @@
         <v>51</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N76" s="23"/>
-      <c r="O76" s="29">
-        <v>0</v>
-      </c>
-      <c r="P76" s="29" t="s">
+      <c r="O76" s="31">
+        <v>0</v>
+      </c>
+      <c r="P76" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Q76" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
+      <c r="Q76" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
       <c r="U76" s="23">
         <v>0</v>
       </c>
@@ -4904,16 +4953,16 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="33.75" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="23">
         <v>1</v>
       </c>
@@ -4921,17 +4970,17 @@
         <v>55</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
       <c r="U77" s="23">
         <v>1</v>
       </c>
@@ -4943,16 +4992,16 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="23">
         <v>3</v>
       </c>
@@ -4960,21 +5009,21 @@
         <v>59</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N78" s="23"/>
-      <c r="O78" s="29">
+      <c r="O78" s="31">
         <v>3</v>
       </c>
-      <c r="P78" s="29" t="s">
+      <c r="P78" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q78" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
+      <c r="Q78" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
       <c r="U78" s="23">
         <v>2</v>
       </c>
@@ -4986,16 +5035,16 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="32.25" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="23">
         <v>2</v>
       </c>
@@ -5003,17 +5052,17 @@
         <v>63</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
       <c r="U79" s="23">
         <v>3</v>
       </c>
@@ -5025,34 +5074,34 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="13.9" customHeight="1">
-      <c r="A80" s="34">
+      <c r="A80" s="30">
         <v>37</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E80" s="29">
+      <c r="D80" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="31">
         <v>80</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="31">
         <v>6</v>
       </c>
-      <c r="G80" s="29">
-        <v>0</v>
-      </c>
-      <c r="H80" s="29">
-        <v>1</v>
-      </c>
-      <c r="I80" s="29">
+      <c r="G80" s="31">
+        <v>0</v>
+      </c>
+      <c r="H80" s="31">
+        <v>1</v>
+      </c>
+      <c r="I80" s="31">
         <v>4</v>
       </c>
-      <c r="J80" s="29"/>
+      <c r="J80" s="31"/>
       <c r="K80" s="23">
         <v>0</v>
       </c>
@@ -5060,21 +5109,21 @@
         <v>51</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N80" s="23"/>
-      <c r="O80" s="29">
-        <v>0</v>
-      </c>
-      <c r="P80" s="29" t="s">
+      <c r="O80" s="31">
+        <v>0</v>
+      </c>
+      <c r="P80" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Q80" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
+      <c r="Q80" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
       <c r="U80" s="23">
         <v>0</v>
       </c>
@@ -5086,16 +5135,16 @@
       </c>
     </row>
     <row r="81" spans="1:23" ht="36" customHeight="1">
-      <c r="A81" s="34"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
       <c r="K81" s="23">
         <v>1</v>
       </c>
@@ -5103,17 +5152,17 @@
         <v>55</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
       <c r="U81" s="23">
         <v>1</v>
       </c>
@@ -5125,16 +5174,16 @@
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="23">
         <v>3</v>
       </c>
@@ -5142,21 +5191,21 @@
         <v>59</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N82" s="23"/>
-      <c r="O82" s="29">
+      <c r="O82" s="31">
         <v>3</v>
       </c>
-      <c r="P82" s="29" t="s">
+      <c r="P82" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q82" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
+      <c r="Q82" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
       <c r="U82" s="23">
         <v>2</v>
       </c>
@@ -5168,16 +5217,16 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="43.5" customHeight="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="23">
         <v>2</v>
       </c>
@@ -5185,17 +5234,17 @@
         <v>63</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N83" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
       <c r="U83" s="23">
         <v>3</v>
       </c>
@@ -5207,97 +5256,557 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="667">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
+  <mergeCells count="655">
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="T80:T81"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="T70:T71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="T66:T67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="T68:T69"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="T62:T63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
@@ -5322,559 +5831,87 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="T62:T63"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="T66:T67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="T68:T69"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="T70:T71"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="T72:T73"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="T76:T77"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="R78:R79"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:T79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="R80:R81"/>
-    <mergeCell ref="S80:S81"/>
-    <mergeCell ref="T80:T81"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="T82:T83"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="J80:J83"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6091,198 +6128,198 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>100</v>
       </c>
       <c r="B61" t="s">
@@ -6290,31 +6327,31 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" t="s">
         <v>105</v>
       </c>
@@ -6323,92 +6360,92 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="39"/>
+      <c r="A77" s="40"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="39"/>
+      <c r="A78" s="40"/>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="39"/>
+      <c r="A80" s="40"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="39"/>
+      <c r="A81" s="40"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="39"/>
+      <c r="A82" s="40"/>
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="39"/>
+      <c r="A84" s="40"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="39"/>
+      <c r="A85" s="40"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="39"/>
+      <c r="A86" s="40"/>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="39"/>
+      <c r="A88" s="40"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="39"/>
+      <c r="A89" s="40"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="39"/>
+      <c r="A90" s="40"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="40"/>
+      <c r="A92" s="39"/>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
@@ -6441,31 +6478,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A90"/>
@@ -6475,6 +6487,31 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
